--- a/dat/B. TECH. III SEM DECEMBER 2019.xlsx
+++ b/dat/B. TECH. III SEM DECEMBER 2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\django\webresult\dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\dev\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED312EAF-1607-4423-8D38-2F64F5DB238D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B81BE8-DCD5-4403-BEC0-FC662B819713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EE!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ME!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3371,27 +3381,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3410,16 +3399,37 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4877,8 +4887,8 @@
   </sheetPr>
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4900,189 +4910,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="201"/>
+      <c r="AE1" s="201"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="201"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="201"/>
+      <c r="AJ1" s="201"/>
+      <c r="AK1" s="201"/>
     </row>
     <row r="2" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="208"/>
-      <c r="AH2" s="208"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="208"/>
-      <c r="AK2" s="208"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
     </row>
     <row r="3" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="202" t="s">
         <v>593</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="209"/>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="202"/>
+      <c r="AK3" s="202"/>
     </row>
     <row r="4" spans="1:37" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="204" t="s">
+      <c r="C4" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="209" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="200" t="s">
         <v>708</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>709</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="210" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="203" t="s">
         <v>710</v>
       </c>
-      <c r="N4" s="211"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="210" t="s">
+      <c r="N4" s="204"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="203" t="s">
         <v>711</v>
       </c>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="207" t="s">
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="200" t="s">
         <v>622</v>
       </c>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207" t="s">
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200" t="s">
         <v>712</v>
       </c>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207" t="s">
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200" t="s">
         <v>743</v>
       </c>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207" t="s">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200" t="s">
         <v>744</v>
       </c>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207" t="s">
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200" t="s">
         <v>713</v>
       </c>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="207"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="200"/>
       <c r="AH4" s="179" t="s">
         <v>714</v>
       </c>
@@ -5097,11 +5107,11 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="201"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="215"/>
+      <c r="A5" s="213"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="210"/>
       <c r="F5" s="16"/>
       <c r="G5" s="9" t="s">
         <v>7</v>
@@ -5190,11 +5200,11 @@
       <c r="AK5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="201"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="215"/>
+      <c r="A6" s="213"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="210"/>
       <c r="F6" s="42" t="s">
         <v>2</v>
       </c>
@@ -5298,11 +5308,11 @@
       <c r="AK6" s="70"/>
     </row>
     <row r="7" spans="1:37" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="216"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="211"/>
       <c r="F7" s="18" t="s">
         <v>3</v>
       </c>
@@ -5654,14 +5664,14 @@
         <v>99</v>
       </c>
       <c r="M10" s="120">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="N10" s="120">
         <v>45</v>
       </c>
       <c r="O10" s="121">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="P10" s="115">
         <v>56</v>
@@ -5728,7 +5738,7 @@
       </c>
       <c r="AI10" s="121">
         <f t="shared" si="9"/>
-        <v>667</v>
+        <v>760</v>
       </c>
       <c r="AJ10" s="181" t="s">
         <v>664</v>
@@ -13253,6 +13263,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="B1:AK1"/>
@@ -13264,12 +13280,6 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G8:G73 J8:J73 M8:M73 P8:P73 S8:S73">
@@ -13402,102 +13412,102 @@
       <c r="AH2" s="217"/>
     </row>
     <row r="3" spans="1:34" s="43" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="202" t="s">
         <v>592</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="209"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
     </row>
     <row r="4" spans="1:34" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="216" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="200" t="s">
         <v>623</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>726</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200" t="s">
         <v>715</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="210" t="s">
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="203" t="s">
         <v>716</v>
       </c>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="210" t="s">
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="203" t="s">
         <v>686</v>
       </c>
-      <c r="T4" s="211"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="210" t="s">
+      <c r="T4" s="204"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="203" t="s">
         <v>624</v>
       </c>
-      <c r="W4" s="211"/>
-      <c r="X4" s="212"/>
-      <c r="Y4" s="207" t="s">
+      <c r="W4" s="204"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="200" t="s">
         <v>728</v>
       </c>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207" t="s">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200" t="s">
         <v>727</v>
       </c>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
       <c r="AE4" s="67" t="s">
         <v>625</v>
       </c>
@@ -13512,11 +13522,11 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="203"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="22"/>
       <c r="G5" s="38" t="s">
         <v>7</v>
@@ -13596,11 +13606,11 @@
       <c r="AH5" s="22"/>
     </row>
     <row r="6" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="203"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="23" t="s">
         <v>2</v>
       </c>
@@ -13695,11 +13705,11 @@
       <c r="AH6" s="36"/>
     </row>
     <row r="7" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="24" t="s">
         <v>3</v>
       </c>
@@ -20663,108 +20673,108 @@
       <c r="AK2" s="217"/>
     </row>
     <row r="3" spans="1:37" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="202" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="209"/>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="202"/>
+      <c r="AK3" s="202"/>
     </row>
     <row r="4" spans="1:37" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="206" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="61"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="216" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200" t="s">
         <v>669</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207" t="s">
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200" t="s">
         <v>748</v>
       </c>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207" t="s">
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207" t="s">
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200" t="s">
         <v>749</v>
       </c>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207" t="s">
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200" t="s">
         <v>750</v>
       </c>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207" t="s">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200" t="s">
         <v>751</v>
       </c>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207" t="s">
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="207"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="200"/>
       <c r="AH4" s="67" t="s">
         <v>625</v>
       </c>
@@ -20779,11 +20789,11 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="203"/>
-      <c r="B5" s="213"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="46"/>
       <c r="G5" s="9" t="s">
         <v>7</v>
@@ -20872,11 +20882,11 @@
       <c r="AK5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="203"/>
-      <c r="B6" s="213"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="62"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="46" t="s">
         <v>2</v>
       </c>
@@ -20980,11 +20990,11 @@
       <c r="AK6" s="17"/>
     </row>
     <row r="7" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="204"/>
-      <c r="B7" s="214"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="47" t="s">
         <v>3</v>
       </c>
@@ -29325,77 +29335,77 @@
       <c r="AO3" s="219"/>
     </row>
     <row r="4" spans="1:41" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="203" t="s">
+      <c r="D4" s="215" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="216" t="s">
         <v>788</v>
       </c>
-      <c r="F4" s="205" t="s">
+      <c r="F4" s="216" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="207" t="s">
+      <c r="H4" s="200" t="s">
         <v>789</v>
       </c>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207" t="s">
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200" t="s">
         <v>690</v>
       </c>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207" t="s">
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200" t="s">
         <v>790</v>
       </c>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="210" t="s">
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="203" t="s">
         <v>691</v>
       </c>
-      <c r="R4" s="211"/>
-      <c r="S4" s="212"/>
-      <c r="T4" s="210" t="s">
+      <c r="R4" s="204"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="203" t="s">
         <v>692</v>
       </c>
-      <c r="U4" s="211"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="210" t="s">
+      <c r="U4" s="204"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="203" t="s">
         <v>791</v>
       </c>
-      <c r="X4" s="211"/>
-      <c r="Y4" s="212"/>
-      <c r="Z4" s="207" t="s">
+      <c r="X4" s="204"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="200" t="s">
         <v>693</v>
       </c>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207" t="s">
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200" t="s">
         <v>694</v>
       </c>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207" t="s">
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200"/>
+      <c r="AF4" s="200" t="s">
         <v>695</v>
       </c>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207" t="s">
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200" t="s">
         <v>696</v>
       </c>
-      <c r="AJ4" s="207"/>
-      <c r="AK4" s="207"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
       <c r="AL4" s="65" t="s">
         <v>697</v>
       </c>
@@ -29410,12 +29420,12 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="203"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
       <c r="G5" s="15"/>
       <c r="H5" s="38" t="s">
         <v>7</v>
@@ -29513,12 +29523,12 @@
       <c r="AO5" s="15"/>
     </row>
     <row r="6" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="203"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
       <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
@@ -29632,12 +29642,12 @@
       <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="204"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
       <c r="G7" s="27" t="s">
         <v>3</v>
       </c>
@@ -38614,12 +38624,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AO1"/>
     <mergeCell ref="A2:AO2"/>
     <mergeCell ref="A3:AO3"/>
@@ -38633,6 +38637,12 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H74">
     <cfRule type="cellIs" dxfId="36" priority="21" stopIfTrue="1" operator="lessThan">
@@ -38766,139 +38776,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="201"/>
+      <c r="AE1" s="201"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="201"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="201"/>
+      <c r="AJ1" s="201"/>
+      <c r="AK1" s="201"/>
+      <c r="AL1" s="201"/>
+      <c r="AM1" s="201"/>
+      <c r="AN1" s="201"/>
+      <c r="AO1" s="201"/>
     </row>
     <row r="2" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="208"/>
-      <c r="AH2" s="208"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="208"/>
-      <c r="AK2" s="208"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="208"/>
-      <c r="AN2" s="208"/>
-      <c r="AO2" s="208"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
     </row>
     <row r="3" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="202" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="209"/>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
-      <c r="AL3" s="209"/>
-      <c r="AM3" s="209"/>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="209"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="202"/>
+      <c r="AK3" s="202"/>
+      <c r="AL3" s="202"/>
+      <c r="AM3" s="202"/>
+      <c r="AN3" s="202"/>
+      <c r="AO3" s="202"/>
     </row>
     <row r="4" spans="1:41" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
@@ -38922,56 +38932,56 @@
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="207" t="s">
+      <c r="H4" s="200" t="s">
         <v>674</v>
       </c>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207" t="s">
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200" t="s">
         <v>675</v>
       </c>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207" t="s">
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200" t="s">
         <v>679</v>
       </c>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207" t="s">
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200" t="s">
         <v>676</v>
       </c>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207" t="s">
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200" t="s">
         <v>677</v>
       </c>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207" t="s">
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200" t="s">
         <v>678</v>
       </c>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207" t="s">
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200"/>
+      <c r="Z4" s="200" t="s">
         <v>680</v>
       </c>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207" t="s">
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200" t="s">
         <v>682</v>
       </c>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207" t="s">
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200"/>
+      <c r="AF4" s="200" t="s">
         <v>683</v>
       </c>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207" t="s">
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200" t="s">
         <v>681</v>
       </c>
-      <c r="AJ4" s="207"/>
-      <c r="AK4" s="207"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
       <c r="AL4" s="65" t="s">
         <v>625</v>
       </c>
@@ -39209,10 +39219,10 @@
       <c r="AO6" s="40"/>
     </row>
     <row r="7" spans="1:41" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="200"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
+      <c r="A7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="222"/>
       <c r="F7" s="222"/>
       <c r="G7" s="108" t="s">
@@ -39607,11 +39617,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="A1:AO1"/>
     <mergeCell ref="J10:X11"/>
     <mergeCell ref="A3:AO3"/>
@@ -39627,6 +39632,11 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.27559055118110237" top="2.2834645669291338" bottom="4.5275590551181102" header="0.31496062992125984" footer="4.1338582677165361"/>
   <pageSetup paperSize="8" scale="39" orientation="landscape" r:id="rId1"/>
@@ -39664,79 +39674,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="201"/>
+      <c r="AE1" s="201"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="201"/>
       <c r="AH1" s="8"/>
     </row>
     <row r="2" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="208"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
       <c r="AH2" s="8"/>
     </row>
     <row r="3" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39796,46 +39806,46 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="200" t="s">
         <v>586</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>740</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200" t="s">
         <v>746</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="210" t="s">
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="203" t="s">
         <v>667</v>
       </c>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="207" t="s">
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="200" t="s">
         <v>668</v>
       </c>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207" t="s">
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200" t="s">
         <v>587</v>
       </c>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="210" t="s">
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="203" t="s">
         <v>741</v>
       </c>
-      <c r="Z4" s="211"/>
-      <c r="AA4" s="212"/>
-      <c r="AB4" s="207" t="s">
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="200" t="s">
         <v>742</v>
       </c>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
       <c r="AE4" s="65" t="s">
         <v>621</v>
       </c>

--- a/dat/B. TECH. III SEM DECEMBER 2019.xlsx
+++ b/dat/B. TECH. III SEM DECEMBER 2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\dev\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B81BE8-DCD5-4403-BEC0-FC662B819713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4F2AB1-5720-45C0-BB79-247598741133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3381,6 +3381,27 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3399,37 +3420,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4887,8 +4887,8 @@
   </sheetPr>
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="25" zoomScaleNormal="25" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="J54" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI54" sqref="AI54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4910,189 +4910,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="201"/>
-      <c r="AH1" s="201"/>
-      <c r="AI1" s="201"/>
-      <c r="AJ1" s="201"/>
-      <c r="AK1" s="201"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
     </row>
     <row r="2" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="208"/>
+      <c r="AH2" s="208"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="208"/>
+      <c r="AK2" s="208"/>
     </row>
     <row r="3" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="209" t="s">
         <v>593</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="202"/>
-      <c r="AH3" s="202"/>
-      <c r="AI3" s="202"/>
-      <c r="AJ3" s="202"/>
-      <c r="AK3" s="202"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="209"/>
+      <c r="AH3" s="209"/>
+      <c r="AI3" s="209"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
     </row>
     <row r="4" spans="1:37" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="216" t="s">
+      <c r="D4" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="209" t="s">
+      <c r="E4" s="206" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="207" t="s">
         <v>708</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200" t="s">
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207" t="s">
         <v>709</v>
       </c>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="203" t="s">
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="210" t="s">
         <v>710</v>
       </c>
-      <c r="N4" s="204"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="203" t="s">
+      <c r="N4" s="211"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="210" t="s">
         <v>711</v>
       </c>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="200" t="s">
+      <c r="Q4" s="211"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="207" t="s">
         <v>622</v>
       </c>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200" t="s">
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207" t="s">
         <v>712</v>
       </c>
-      <c r="W4" s="200"/>
-      <c r="X4" s="200"/>
-      <c r="Y4" s="200" t="s">
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207" t="s">
         <v>743</v>
       </c>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200" t="s">
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207" t="s">
         <v>744</v>
       </c>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="200" t="s">
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207" t="s">
         <v>713</v>
       </c>
-      <c r="AF4" s="200"/>
-      <c r="AG4" s="200"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
       <c r="AH4" s="179" t="s">
         <v>714</v>
       </c>
@@ -5107,11 +5107,11 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="213"/>
-      <c r="B5" s="215"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="210"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="215"/>
       <c r="F5" s="16"/>
       <c r="G5" s="9" t="s">
         <v>7</v>
@@ -5200,11 +5200,11 @@
       <c r="AK5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="213"/>
-      <c r="B6" s="215"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="210"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="42" t="s">
         <v>2</v>
       </c>
@@ -5308,11 +5308,11 @@
       <c r="AK6" s="70"/>
     </row>
     <row r="7" spans="1:37" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="214"/>
-      <c r="B7" s="206"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="211"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="18" t="s">
         <v>3</v>
       </c>
@@ -10908,14 +10908,14 @@
         <v>108</v>
       </c>
       <c r="M54" s="120">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="N54" s="120">
         <v>52</v>
       </c>
       <c r="O54" s="121">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="P54" s="115">
         <v>52</v>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="AI54" s="121">
         <f t="shared" si="9"/>
-        <v>682</v>
+        <v>773</v>
       </c>
       <c r="AJ54" s="181" t="s">
         <v>664</v>
@@ -13263,12 +13263,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="B1:AK1"/>
@@ -13280,6 +13274,12 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G8:G73 J8:J73 M8:M73 P8:P73 S8:S73">
@@ -13412,102 +13412,102 @@
       <c r="AH2" s="217"/>
     </row>
     <row r="3" spans="1:34" s="43" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="209" t="s">
         <v>592</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="202"/>
-      <c r="AH3" s="202"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="209"/>
+      <c r="AH3" s="209"/>
     </row>
     <row r="4" spans="1:34" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="215" t="s">
+      <c r="C4" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="216" t="s">
+      <c r="D4" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="216" t="s">
+      <c r="E4" s="205" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="207" t="s">
         <v>623</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200" t="s">
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207" t="s">
         <v>726</v>
       </c>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200" t="s">
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207" t="s">
         <v>715</v>
       </c>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="203" t="s">
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="210" t="s">
         <v>716</v>
       </c>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="203" t="s">
+      <c r="Q4" s="211"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="210" t="s">
         <v>686</v>
       </c>
-      <c r="T4" s="204"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="203" t="s">
+      <c r="T4" s="211"/>
+      <c r="U4" s="212"/>
+      <c r="V4" s="210" t="s">
         <v>624</v>
       </c>
-      <c r="W4" s="204"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="200" t="s">
+      <c r="W4" s="211"/>
+      <c r="X4" s="212"/>
+      <c r="Y4" s="207" t="s">
         <v>728</v>
       </c>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200" t="s">
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207" t="s">
         <v>727</v>
       </c>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
       <c r="AE4" s="67" t="s">
         <v>625</v>
       </c>
@@ -13522,11 +13522,11 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
-      <c r="B5" s="215"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
       <c r="F5" s="22"/>
       <c r="G5" s="38" t="s">
         <v>7</v>
@@ -13606,11 +13606,11 @@
       <c r="AH5" s="22"/>
     </row>
     <row r="6" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
       <c r="F6" s="23" t="s">
         <v>2</v>
       </c>
@@ -13705,11 +13705,11 @@
       <c r="AH6" s="36"/>
     </row>
     <row r="7" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
       <c r="F7" s="24" t="s">
         <v>3</v>
       </c>
@@ -20673,108 +20673,108 @@
       <c r="AK2" s="217"/>
     </row>
     <row r="3" spans="1:37" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="209" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="202"/>
-      <c r="AH3" s="202"/>
-      <c r="AI3" s="202"/>
-      <c r="AJ3" s="202"/>
-      <c r="AK3" s="202"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="209"/>
+      <c r="AH3" s="209"/>
+      <c r="AI3" s="209"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
     </row>
     <row r="4" spans="1:37" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="204" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="61"/>
-      <c r="D4" s="216" t="s">
+      <c r="D4" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="216" t="s">
+      <c r="E4" s="205" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="207" t="s">
         <v>656</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200" t="s">
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207" t="s">
         <v>657</v>
       </c>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200" t="s">
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207" t="s">
         <v>669</v>
       </c>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200" t="s">
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207" t="s">
         <v>748</v>
       </c>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200" t="s">
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207" t="s">
         <v>658</v>
       </c>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200" t="s">
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207" t="s">
         <v>749</v>
       </c>
-      <c r="W4" s="200"/>
-      <c r="X4" s="200"/>
-      <c r="Y4" s="200" t="s">
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207" t="s">
         <v>750</v>
       </c>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200" t="s">
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207" t="s">
         <v>751</v>
       </c>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="200" t="s">
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207" t="s">
         <v>659</v>
       </c>
-      <c r="AF4" s="200"/>
-      <c r="AG4" s="200"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
       <c r="AH4" s="67" t="s">
         <v>625</v>
       </c>
@@ -20789,11 +20789,11 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="215"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="213"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="216"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
       <c r="F5" s="46"/>
       <c r="G5" s="9" t="s">
         <v>7</v>
@@ -20882,11 +20882,11 @@
       <c r="AK5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="215"/>
-      <c r="B6" s="207"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="213"/>
       <c r="C6" s="62"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
       <c r="F6" s="46" t="s">
         <v>2</v>
       </c>
@@ -20990,11 +20990,11 @@
       <c r="AK6" s="17"/>
     </row>
     <row r="7" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="206"/>
-      <c r="B7" s="208"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="206"/>
       <c r="F7" s="47" t="s">
         <v>3</v>
       </c>
@@ -29335,77 +29335,77 @@
       <c r="AO3" s="219"/>
     </row>
     <row r="4" spans="1:41" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="215" t="s">
+      <c r="C4" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="215" t="s">
+      <c r="D4" s="203" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="216" t="s">
+      <c r="E4" s="205" t="s">
         <v>788</v>
       </c>
-      <c r="F4" s="216" t="s">
+      <c r="F4" s="205" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="200" t="s">
+      <c r="H4" s="207" t="s">
         <v>789</v>
       </c>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200" t="s">
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207" t="s">
         <v>690</v>
       </c>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200" t="s">
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207" t="s">
         <v>790</v>
       </c>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="203" t="s">
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="210" t="s">
         <v>691</v>
       </c>
-      <c r="R4" s="204"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="203" t="s">
+      <c r="R4" s="211"/>
+      <c r="S4" s="212"/>
+      <c r="T4" s="210" t="s">
         <v>692</v>
       </c>
-      <c r="U4" s="204"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="203" t="s">
+      <c r="U4" s="211"/>
+      <c r="V4" s="212"/>
+      <c r="W4" s="210" t="s">
         <v>791</v>
       </c>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="200" t="s">
+      <c r="X4" s="211"/>
+      <c r="Y4" s="212"/>
+      <c r="Z4" s="207" t="s">
         <v>693</v>
       </c>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200"/>
-      <c r="AC4" s="200" t="s">
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207" t="s">
         <v>694</v>
       </c>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="200"/>
-      <c r="AF4" s="200" t="s">
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207" t="s">
         <v>695</v>
       </c>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="200"/>
-      <c r="AI4" s="200" t="s">
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207" t="s">
         <v>696</v>
       </c>
-      <c r="AJ4" s="200"/>
-      <c r="AK4" s="200"/>
+      <c r="AJ4" s="207"/>
+      <c r="AK4" s="207"/>
       <c r="AL4" s="65" t="s">
         <v>697</v>
       </c>
@@ -29420,12 +29420,12 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="215"/>
-      <c r="B5" s="215"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="216"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
       <c r="G5" s="15"/>
       <c r="H5" s="38" t="s">
         <v>7</v>
@@ -29523,12 +29523,12 @@
       <c r="AO5" s="15"/>
     </row>
     <row r="6" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="215"/>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
       <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
@@ -29642,12 +29642,12 @@
       <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="206"/>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="27" t="s">
         <v>3</v>
       </c>
@@ -38624,6 +38624,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AO1"/>
     <mergeCell ref="A2:AO2"/>
     <mergeCell ref="A3:AO3"/>
@@ -38640,9 +38643,6 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H74">
     <cfRule type="cellIs" dxfId="36" priority="21" stopIfTrue="1" operator="lessThan">
@@ -38776,139 +38776,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="201"/>
-      <c r="AH1" s="201"/>
-      <c r="AI1" s="201"/>
-      <c r="AJ1" s="201"/>
-      <c r="AK1" s="201"/>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="201"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
     </row>
     <row r="2" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="201"/>
-      <c r="AJ2" s="201"/>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="201"/>
-      <c r="AM2" s="201"/>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="201"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="208"/>
+      <c r="AH2" s="208"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="208"/>
+      <c r="AK2" s="208"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="208"/>
+      <c r="AN2" s="208"/>
+      <c r="AO2" s="208"/>
     </row>
     <row r="3" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="209" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="202"/>
-      <c r="Q3" s="202"/>
-      <c r="R3" s="202"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="202"/>
-      <c r="AE3" s="202"/>
-      <c r="AF3" s="202"/>
-      <c r="AG3" s="202"/>
-      <c r="AH3" s="202"/>
-      <c r="AI3" s="202"/>
-      <c r="AJ3" s="202"/>
-      <c r="AK3" s="202"/>
-      <c r="AL3" s="202"/>
-      <c r="AM3" s="202"/>
-      <c r="AN3" s="202"/>
-      <c r="AO3" s="202"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
+      <c r="M3" s="209"/>
+      <c r="N3" s="209"/>
+      <c r="O3" s="209"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="209"/>
+      <c r="X3" s="209"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="209"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="209"/>
+      <c r="AG3" s="209"/>
+      <c r="AH3" s="209"/>
+      <c r="AI3" s="209"/>
+      <c r="AJ3" s="209"/>
+      <c r="AK3" s="209"/>
+      <c r="AL3" s="209"/>
+      <c r="AM3" s="209"/>
+      <c r="AN3" s="209"/>
+      <c r="AO3" s="209"/>
     </row>
     <row r="4" spans="1:41" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
@@ -38932,56 +38932,56 @@
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="200" t="s">
+      <c r="H4" s="207" t="s">
         <v>674</v>
       </c>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200" t="s">
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207" t="s">
         <v>675</v>
       </c>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200" t="s">
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207" t="s">
         <v>679</v>
       </c>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200" t="s">
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207" t="s">
         <v>676</v>
       </c>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200" t="s">
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207" t="s">
         <v>677</v>
       </c>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200" t="s">
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207" t="s">
         <v>678</v>
       </c>
-      <c r="X4" s="200"/>
-      <c r="Y4" s="200"/>
-      <c r="Z4" s="200" t="s">
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207" t="s">
         <v>680</v>
       </c>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200"/>
-      <c r="AC4" s="200" t="s">
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207" t="s">
         <v>682</v>
       </c>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="200"/>
-      <c r="AF4" s="200" t="s">
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207" t="s">
         <v>683</v>
       </c>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="200"/>
-      <c r="AI4" s="200" t="s">
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207" t="s">
         <v>681</v>
       </c>
-      <c r="AJ4" s="200"/>
-      <c r="AK4" s="200"/>
+      <c r="AJ4" s="207"/>
+      <c r="AK4" s="207"/>
       <c r="AL4" s="65" t="s">
         <v>625</v>
       </c>
@@ -39219,10 +39219,10 @@
       <c r="AO6" s="40"/>
     </row>
     <row r="7" spans="1:41" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="212"/>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
       <c r="E7" s="222"/>
       <c r="F7" s="222"/>
       <c r="G7" s="108" t="s">
@@ -39617,6 +39617,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="A1:AO1"/>
     <mergeCell ref="J10:X11"/>
     <mergeCell ref="A3:AO3"/>
@@ -39633,10 +39637,6 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="AF4:AH4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.27559055118110237" top="2.2834645669291338" bottom="4.5275590551181102" header="0.31496062992125984" footer="4.1338582677165361"/>
   <pageSetup paperSize="8" scale="39" orientation="landscape" r:id="rId1"/>
@@ -39674,79 +39674,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="201"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="208"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
       <c r="AH1" s="8"/>
     </row>
     <row r="2" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201"/>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201"/>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="201"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="208"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
+      <c r="T2" s="208"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="208"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="208"/>
+      <c r="AB2" s="208"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="208"/>
       <c r="AH2" s="8"/>
     </row>
     <row r="3" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39806,46 +39806,46 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="207" t="s">
         <v>586</v>
       </c>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200" t="s">
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207" t="s">
         <v>740</v>
       </c>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200" t="s">
+      <c r="K4" s="207"/>
+      <c r="L4" s="207"/>
+      <c r="M4" s="207" t="s">
         <v>746</v>
       </c>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="203" t="s">
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="210" t="s">
         <v>667</v>
       </c>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="200" t="s">
+      <c r="Q4" s="211"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="207" t="s">
         <v>668</v>
       </c>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200" t="s">
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207" t="s">
         <v>587</v>
       </c>
-      <c r="W4" s="200"/>
-      <c r="X4" s="200"/>
-      <c r="Y4" s="203" t="s">
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="210" t="s">
         <v>741</v>
       </c>
-      <c r="Z4" s="204"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="200" t="s">
+      <c r="Z4" s="211"/>
+      <c r="AA4" s="212"/>
+      <c r="AB4" s="207" t="s">
         <v>742</v>
       </c>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
       <c r="AE4" s="65" t="s">
         <v>621</v>
       </c>

--- a/dat/B. TECH. III SEM DECEMBER 2019.xlsx
+++ b/dat/B. TECH. III SEM DECEMBER 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jatin\Desktop\dev\web d\react\live-result\public\dat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4F2AB1-5720-45C0-BB79-247598741133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBD7B8-83F0-4AEB-A59E-53BDF03B3688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -3381,27 +3381,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3420,16 +3399,37 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4887,7 +4887,7 @@
   </sheetPr>
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J54" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="J54" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AI54" sqref="AI54"/>
     </sheetView>
   </sheetViews>
@@ -4910,189 +4910,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="201"/>
+      <c r="AE1" s="201"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="201"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="201"/>
+      <c r="AJ1" s="201"/>
+      <c r="AK1" s="201"/>
     </row>
     <row r="2" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="208"/>
-      <c r="AH2" s="208"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="208"/>
-      <c r="AK2" s="208"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
     </row>
     <row r="3" spans="1:37" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="202" t="s">
         <v>593</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="209"/>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="202"/>
+      <c r="AK3" s="202"/>
     </row>
     <row r="4" spans="1:37" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="204" t="s">
+      <c r="C4" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="206" t="s">
+      <c r="E4" s="209" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="200" t="s">
         <v>708</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>709</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="210" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="203" t="s">
         <v>710</v>
       </c>
-      <c r="N4" s="211"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="210" t="s">
+      <c r="N4" s="204"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="203" t="s">
         <v>711</v>
       </c>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="207" t="s">
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="200" t="s">
         <v>622</v>
       </c>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207" t="s">
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200" t="s">
         <v>712</v>
       </c>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207" t="s">
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200" t="s">
         <v>743</v>
       </c>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207" t="s">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200" t="s">
         <v>744</v>
       </c>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207" t="s">
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200" t="s">
         <v>713</v>
       </c>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="207"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="200"/>
       <c r="AH4" s="179" t="s">
         <v>714</v>
       </c>
@@ -5107,11 +5107,11 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="201"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="215"/>
+      <c r="A5" s="213"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="210"/>
       <c r="F5" s="16"/>
       <c r="G5" s="9" t="s">
         <v>7</v>
@@ -5200,11 +5200,11 @@
       <c r="AK5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="201"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="215"/>
+      <c r="A6" s="213"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="210"/>
       <c r="F6" s="42" t="s">
         <v>2</v>
       </c>
@@ -5308,11 +5308,11 @@
       <c r="AK6" s="70"/>
     </row>
     <row r="7" spans="1:37" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="216"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="211"/>
       <c r="F7" s="18" t="s">
         <v>3</v>
       </c>
@@ -13263,6 +13263,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="B1:AK1"/>
@@ -13274,12 +13280,6 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="S4:U4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G8:G73 J8:J73 M8:M73 P8:P73 S8:S73">
@@ -13412,102 +13412,102 @@
       <c r="AH2" s="217"/>
     </row>
     <row r="3" spans="1:34" s="43" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="202" t="s">
         <v>592</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="209"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
     </row>
     <row r="4" spans="1:34" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="216" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="200" t="s">
         <v>623</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>726</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200" t="s">
         <v>715</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="210" t="s">
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="203" t="s">
         <v>716</v>
       </c>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="210" t="s">
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="203" t="s">
         <v>686</v>
       </c>
-      <c r="T4" s="211"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="210" t="s">
+      <c r="T4" s="204"/>
+      <c r="U4" s="205"/>
+      <c r="V4" s="203" t="s">
         <v>624</v>
       </c>
-      <c r="W4" s="211"/>
-      <c r="X4" s="212"/>
-      <c r="Y4" s="207" t="s">
+      <c r="W4" s="204"/>
+      <c r="X4" s="205"/>
+      <c r="Y4" s="200" t="s">
         <v>728</v>
       </c>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207" t="s">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200" t="s">
         <v>727</v>
       </c>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
       <c r="AE4" s="67" t="s">
         <v>625</v>
       </c>
@@ -13522,11 +13522,11 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="203"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="22"/>
       <c r="G5" s="38" t="s">
         <v>7</v>
@@ -13606,11 +13606,11 @@
       <c r="AH5" s="22"/>
     </row>
     <row r="6" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="203"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="23" t="s">
         <v>2</v>
       </c>
@@ -13705,11 +13705,11 @@
       <c r="AH6" s="36"/>
     </row>
     <row r="7" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="204"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="24" t="s">
         <v>3</v>
       </c>
@@ -20673,108 +20673,108 @@
       <c r="AK2" s="217"/>
     </row>
     <row r="3" spans="1:37" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="202" t="s">
         <v>591</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="209"/>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="202"/>
+      <c r="AK3" s="202"/>
     </row>
     <row r="4" spans="1:37" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="206" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="61"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="216" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="200" t="s">
         <v>656</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>657</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200" t="s">
         <v>669</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207" t="s">
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200" t="s">
         <v>748</v>
       </c>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207" t="s">
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200" t="s">
         <v>658</v>
       </c>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207" t="s">
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200" t="s">
         <v>749</v>
       </c>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207" t="s">
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200" t="s">
         <v>750</v>
       </c>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207" t="s">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200" t="s">
         <v>751</v>
       </c>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207" t="s">
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200" t="s">
         <v>659</v>
       </c>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="207"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="200"/>
       <c r="AH4" s="67" t="s">
         <v>625</v>
       </c>
@@ -20789,11 +20789,11 @@
       </c>
     </row>
     <row r="5" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="203"/>
-      <c r="B5" s="213"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="46"/>
       <c r="G5" s="9" t="s">
         <v>7</v>
@@ -20882,11 +20882,11 @@
       <c r="AK5" s="15"/>
     </row>
     <row r="6" spans="1:37" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="203"/>
-      <c r="B6" s="213"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="62"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="46" t="s">
         <v>2</v>
       </c>
@@ -20990,11 +20990,11 @@
       <c r="AK6" s="17"/>
     </row>
     <row r="7" spans="1:37" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="204"/>
-      <c r="B7" s="214"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="208"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="47" t="s">
         <v>3</v>
       </c>
@@ -29335,77 +29335,77 @@
       <c r="AO3" s="219"/>
     </row>
     <row r="4" spans="1:41" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="203" t="s">
+      <c r="C4" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="203" t="s">
+      <c r="D4" s="215" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="216" t="s">
         <v>788</v>
       </c>
-      <c r="F4" s="205" t="s">
+      <c r="F4" s="216" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="207" t="s">
+      <c r="H4" s="200" t="s">
         <v>789</v>
       </c>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207" t="s">
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200" t="s">
         <v>690</v>
       </c>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207" t="s">
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200" t="s">
         <v>790</v>
       </c>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="210" t="s">
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="203" t="s">
         <v>691</v>
       </c>
-      <c r="R4" s="211"/>
-      <c r="S4" s="212"/>
-      <c r="T4" s="210" t="s">
+      <c r="R4" s="204"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="203" t="s">
         <v>692</v>
       </c>
-      <c r="U4" s="211"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="210" t="s">
+      <c r="U4" s="204"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="203" t="s">
         <v>791</v>
       </c>
-      <c r="X4" s="211"/>
-      <c r="Y4" s="212"/>
-      <c r="Z4" s="207" t="s">
+      <c r="X4" s="204"/>
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="200" t="s">
         <v>693</v>
       </c>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207" t="s">
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200" t="s">
         <v>694</v>
       </c>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207" t="s">
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200"/>
+      <c r="AF4" s="200" t="s">
         <v>695</v>
       </c>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207" t="s">
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200" t="s">
         <v>696</v>
       </c>
-      <c r="AJ4" s="207"/>
-      <c r="AK4" s="207"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
       <c r="AL4" s="65" t="s">
         <v>697</v>
       </c>
@@ -29420,12 +29420,12 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="203"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
       <c r="G5" s="15"/>
       <c r="H5" s="38" t="s">
         <v>7</v>
@@ -29523,12 +29523,12 @@
       <c r="AO5" s="15"/>
     </row>
     <row r="6" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="203"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
       <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
@@ -29642,12 +29642,12 @@
       <c r="AO6" s="17"/>
     </row>
     <row r="7" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="204"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="206"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
       <c r="G7" s="27" t="s">
         <v>3</v>
       </c>
@@ -38624,6 +38624,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="D4:D7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="AF4:AH4"/>
     <mergeCell ref="C4:C7"/>
@@ -38640,9 +38643,6 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="D4:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H74">
     <cfRule type="cellIs" dxfId="36" priority="21" stopIfTrue="1" operator="lessThan">
@@ -38776,139 +38776,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="201"/>
+      <c r="AE1" s="201"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="201"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="201"/>
+      <c r="AJ1" s="201"/>
+      <c r="AK1" s="201"/>
+      <c r="AL1" s="201"/>
+      <c r="AM1" s="201"/>
+      <c r="AN1" s="201"/>
+      <c r="AO1" s="201"/>
     </row>
     <row r="2" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="208"/>
-      <c r="AH2" s="208"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="208"/>
-      <c r="AK2" s="208"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="208"/>
-      <c r="AN2" s="208"/>
-      <c r="AO2" s="208"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="201"/>
+      <c r="AJ2" s="201"/>
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="201"/>
+      <c r="AM2" s="201"/>
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="201"/>
     </row>
     <row r="3" spans="1:41" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="202" t="s">
         <v>589</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="209"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="209"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="209"/>
-      <c r="AI3" s="209"/>
-      <c r="AJ3" s="209"/>
-      <c r="AK3" s="209"/>
-      <c r="AL3" s="209"/>
-      <c r="AM3" s="209"/>
-      <c r="AN3" s="209"/>
-      <c r="AO3" s="209"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="202"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="202"/>
+      <c r="X3" s="202"/>
+      <c r="Y3" s="202"/>
+      <c r="Z3" s="202"/>
+      <c r="AA3" s="202"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="202"/>
+      <c r="AE3" s="202"/>
+      <c r="AF3" s="202"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="202"/>
+      <c r="AJ3" s="202"/>
+      <c r="AK3" s="202"/>
+      <c r="AL3" s="202"/>
+      <c r="AM3" s="202"/>
+      <c r="AN3" s="202"/>
+      <c r="AO3" s="202"/>
     </row>
     <row r="4" spans="1:41" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
@@ -38932,56 +38932,56 @@
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="207" t="s">
+      <c r="H4" s="200" t="s">
         <v>674</v>
       </c>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207" t="s">
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200" t="s">
         <v>675</v>
       </c>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="207" t="s">
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200" t="s">
         <v>679</v>
       </c>
-      <c r="O4" s="207"/>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207" t="s">
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200" t="s">
         <v>676</v>
       </c>
-      <c r="R4" s="207"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="207" t="s">
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200" t="s">
         <v>677</v>
       </c>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="207" t="s">
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200" t="s">
         <v>678</v>
       </c>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207" t="s">
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200"/>
+      <c r="Z4" s="200" t="s">
         <v>680</v>
       </c>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="207" t="s">
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200" t="s">
         <v>682</v>
       </c>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207" t="s">
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200"/>
+      <c r="AF4" s="200" t="s">
         <v>683</v>
       </c>
-      <c r="AG4" s="207"/>
-      <c r="AH4" s="207"/>
-      <c r="AI4" s="207" t="s">
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200" t="s">
         <v>681</v>
       </c>
-      <c r="AJ4" s="207"/>
-      <c r="AK4" s="207"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
       <c r="AL4" s="65" t="s">
         <v>625</v>
       </c>
@@ -39219,10 +39219,10 @@
       <c r="AO6" s="40"/>
     </row>
     <row r="7" spans="1:41" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="200"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
+      <c r="A7" s="212"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
       <c r="E7" s="222"/>
       <c r="F7" s="222"/>
       <c r="G7" s="108" t="s">
@@ -39617,11 +39617,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="A1:AO1"/>
     <mergeCell ref="J10:X11"/>
     <mergeCell ref="A3:AO3"/>
     <mergeCell ref="W4:Y4"/>
@@ -39631,12 +39626,17 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A2:AO2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="A2:AO2"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.27559055118110237" top="2.2834645669291338" bottom="4.5275590551181102" header="0.31496062992125984" footer="4.1338582677165361"/>
   <pageSetup paperSize="8" scale="39" orientation="landscape" r:id="rId1"/>
@@ -39651,8 +39651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -39674,79 +39674,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="201"/>
+      <c r="AE1" s="201"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="201"/>
       <c r="AH1" s="8"/>
     </row>
     <row r="2" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="208"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="201"/>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="201"/>
       <c r="AH2" s="8"/>
     </row>
     <row r="3" spans="1:35" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39806,46 +39806,46 @@
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="207" t="s">
+      <c r="G4" s="200" t="s">
         <v>586</v>
       </c>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207" t="s">
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200" t="s">
         <v>740</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207" t="s">
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200" t="s">
         <v>746</v>
       </c>
-      <c r="N4" s="207"/>
-      <c r="O4" s="207"/>
-      <c r="P4" s="210" t="s">
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="203" t="s">
         <v>667</v>
       </c>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="207" t="s">
+      <c r="Q4" s="204"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="200" t="s">
         <v>668</v>
       </c>
-      <c r="T4" s="207"/>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207" t="s">
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200" t="s">
         <v>587</v>
       </c>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="210" t="s">
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="203" t="s">
         <v>741</v>
       </c>
-      <c r="Z4" s="211"/>
-      <c r="AA4" s="212"/>
-      <c r="AB4" s="207" t="s">
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="200" t="s">
         <v>742</v>
       </c>
-      <c r="AC4" s="207"/>
-      <c r="AD4" s="207"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
       <c r="AE4" s="65" t="s">
         <v>621</v>
       </c>
@@ -40214,8 +40214,8 @@
         <v>40</v>
       </c>
       <c r="AF8" s="53">
-        <f>AE8+AD8+AA8+X8+U8+R8+O8+L8+I8</f>
-        <v>543</v>
+        <f t="shared" ref="AF8:AF39" si="0">AD8+AA8+X8+U8+R8+O8+L8+I8</f>
+        <v>503</v>
       </c>
       <c r="AG8" s="54" t="s">
         <v>663</v>
@@ -40249,7 +40249,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="121">
-        <f t="shared" ref="I9:I66" si="0">SUM(G9:H9)</f>
+        <f t="shared" ref="I9:I66" si="1">SUM(G9:H9)</f>
         <v>51</v>
       </c>
       <c r="J9" s="120">
@@ -40259,7 +40259,7 @@
         <v>27</v>
       </c>
       <c r="L9" s="121">
-        <f t="shared" ref="L9:L66" si="1">SUM(J9:K9)</f>
+        <f t="shared" ref="L9:L66" si="2">SUM(J9:K9)</f>
         <v>54</v>
       </c>
       <c r="M9" s="120">
@@ -40269,7 +40269,7 @@
         <v>30</v>
       </c>
       <c r="O9" s="121">
-        <f t="shared" ref="O9:O66" si="2">SUM(M9:N9)</f>
+        <f t="shared" ref="O9:O66" si="3">SUM(M9:N9)</f>
         <v>54</v>
       </c>
       <c r="P9" s="120">
@@ -40279,7 +40279,7 @@
         <v>32</v>
       </c>
       <c r="R9" s="121">
-        <f t="shared" ref="R9:R66" si="3">SUM(P9:Q9)</f>
+        <f t="shared" ref="R9:R66" si="4">SUM(P9:Q9)</f>
         <v>42</v>
       </c>
       <c r="S9" s="115">
@@ -40289,7 +40289,7 @@
         <v>34</v>
       </c>
       <c r="U9" s="121">
-        <f t="shared" ref="U9:U66" si="4">SUM(S9:T9)</f>
+        <f t="shared" ref="U9:U66" si="5">SUM(S9:T9)</f>
         <v>81</v>
       </c>
       <c r="V9" s="120">
@@ -40299,7 +40299,7 @@
         <v>26</v>
       </c>
       <c r="X9" s="121">
-        <f t="shared" ref="X9:X66" si="5">SUM(V9:W9)</f>
+        <f t="shared" ref="X9:X66" si="6">SUM(V9:W9)</f>
         <v>77</v>
       </c>
       <c r="Y9" s="120">
@@ -40309,7 +40309,7 @@
         <v>13</v>
       </c>
       <c r="AA9" s="121">
-        <f t="shared" ref="AA9:AA66" si="6">SUM(Y9:Z9)</f>
+        <f t="shared" ref="AA9:AA66" si="7">SUM(Y9:Z9)</f>
         <v>21</v>
       </c>
       <c r="AB9" s="120">
@@ -40319,15 +40319,15 @@
         <v>14</v>
       </c>
       <c r="AD9" s="121">
-        <f t="shared" ref="AD9:AD66" si="7">SUM(AB9:AC9)</f>
+        <f t="shared" ref="AD9:AD66" si="8">SUM(AB9:AC9)</f>
         <v>28</v>
       </c>
       <c r="AE9" s="121">
         <v>30</v>
       </c>
       <c r="AF9" s="53">
-        <f t="shared" ref="AF9:AF66" si="8">AE9+AD9+AA9+X9+U9+R9+O9+L9+I9</f>
-        <v>438</v>
+        <f t="shared" si="0"/>
+        <v>408</v>
       </c>
       <c r="AG9" s="66" t="s">
         <v>664</v>
@@ -40361,7 +40361,7 @@
         <v>47</v>
       </c>
       <c r="I10" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="J10" s="120">
@@ -40371,7 +40371,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="M10" s="120">
@@ -40381,7 +40381,7 @@
         <v>44</v>
       </c>
       <c r="O10" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="P10" s="120">
@@ -40391,7 +40391,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="S10" s="115">
@@ -40401,7 +40401,7 @@
         <v>53</v>
       </c>
       <c r="U10" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="V10" s="120">
@@ -40411,7 +40411,7 @@
         <v>40</v>
       </c>
       <c r="X10" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="Y10" s="120">
@@ -40421,7 +40421,7 @@
         <v>16</v>
       </c>
       <c r="AA10" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AB10" s="120">
@@ -40431,15 +40431,15 @@
         <v>16</v>
       </c>
       <c r="AD10" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="AE10" s="121">
         <v>30</v>
       </c>
       <c r="AF10" s="53">
-        <f t="shared" si="8"/>
-        <v>793</v>
+        <f t="shared" si="0"/>
+        <v>763</v>
       </c>
       <c r="AG10" s="54" t="s">
         <v>663</v>
@@ -40471,7 +40471,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="J11" s="120">
@@ -40481,7 +40481,7 @@
         <v>47</v>
       </c>
       <c r="L11" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="M11" s="120">
@@ -40491,7 +40491,7 @@
         <v>53</v>
       </c>
       <c r="O11" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="P11" s="120">
@@ -40501,7 +40501,7 @@
         <v>55</v>
       </c>
       <c r="R11" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="S11" s="115">
@@ -40511,7 +40511,7 @@
         <v>69</v>
       </c>
       <c r="U11" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="V11" s="120">
@@ -40521,7 +40521,7 @@
         <v>46</v>
       </c>
       <c r="X11" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="Y11" s="120">
@@ -40531,7 +40531,7 @@
         <v>20</v>
       </c>
       <c r="AA11" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="AB11" s="120">
@@ -40541,15 +40541,15 @@
         <v>17</v>
       </c>
       <c r="AD11" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="AE11" s="121">
         <v>40</v>
       </c>
       <c r="AF11" s="53">
-        <f t="shared" si="8"/>
-        <v>912</v>
+        <f t="shared" si="0"/>
+        <v>872</v>
       </c>
       <c r="AG11" s="54" t="s">
         <v>663</v>
@@ -40581,7 +40581,7 @@
         <v>59</v>
       </c>
       <c r="I12" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="J12" s="120">
@@ -40591,7 +40591,7 @@
         <v>49</v>
       </c>
       <c r="L12" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="M12" s="120">
@@ -40601,7 +40601,7 @@
         <v>43</v>
       </c>
       <c r="O12" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="P12" s="120">
@@ -40611,7 +40611,7 @@
         <v>56</v>
       </c>
       <c r="R12" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="S12" s="115">
@@ -40621,7 +40621,7 @@
         <v>68</v>
       </c>
       <c r="U12" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="V12" s="120">
@@ -40631,7 +40631,7 @@
         <v>48</v>
       </c>
       <c r="X12" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>134</v>
       </c>
       <c r="Y12" s="120">
@@ -40641,7 +40641,7 @@
         <v>21</v>
       </c>
       <c r="AA12" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="AB12" s="120">
@@ -40651,15 +40651,15 @@
         <v>19</v>
       </c>
       <c r="AD12" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="AE12" s="121">
         <v>40</v>
       </c>
       <c r="AF12" s="53">
-        <f t="shared" si="8"/>
-        <v>933</v>
+        <f t="shared" si="0"/>
+        <v>893</v>
       </c>
       <c r="AG12" s="54" t="s">
         <v>663</v>
@@ -40691,7 +40691,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="J13" s="120">
@@ -40701,7 +40701,7 @@
         <v>39</v>
       </c>
       <c r="L13" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="M13" s="120">
@@ -40711,7 +40711,7 @@
         <v>43</v>
       </c>
       <c r="O13" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="P13" s="120">
@@ -40721,7 +40721,7 @@
         <v>33</v>
       </c>
       <c r="R13" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="S13" s="115">
@@ -40731,7 +40731,7 @@
         <v>44</v>
       </c>
       <c r="U13" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="V13" s="120">
@@ -40741,7 +40741,7 @@
         <v>47</v>
       </c>
       <c r="X13" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="Y13" s="120">
@@ -40751,7 +40751,7 @@
         <v>16</v>
       </c>
       <c r="AA13" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="AB13" s="120">
@@ -40761,15 +40761,15 @@
         <v>13</v>
       </c>
       <c r="AD13" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AE13" s="121">
         <v>40</v>
       </c>
       <c r="AF13" s="53">
-        <f t="shared" si="8"/>
-        <v>685</v>
+        <f t="shared" si="0"/>
+        <v>645</v>
       </c>
       <c r="AG13" s="54" t="s">
         <v>663</v>
@@ -40801,7 +40801,7 @@
         <v>41</v>
       </c>
       <c r="I14" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="J14" s="120">
@@ -40811,7 +40811,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="M14" s="120">
@@ -40821,7 +40821,7 @@
         <v>42</v>
       </c>
       <c r="O14" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="P14" s="120">
@@ -40831,7 +40831,7 @@
         <v>39</v>
       </c>
       <c r="R14" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="S14" s="115">
@@ -40841,7 +40841,7 @@
         <v>57</v>
       </c>
       <c r="U14" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="V14" s="120">
@@ -40851,7 +40851,7 @@
         <v>44</v>
       </c>
       <c r="X14" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="Y14" s="120">
@@ -40861,7 +40861,7 @@
         <v>17</v>
       </c>
       <c r="AA14" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="AB14" s="120">
@@ -40871,15 +40871,15 @@
         <v>16</v>
       </c>
       <c r="AD14" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="AE14" s="121">
         <v>40</v>
       </c>
       <c r="AF14" s="53">
-        <f t="shared" si="8"/>
-        <v>657</v>
+        <f t="shared" si="0"/>
+        <v>617</v>
       </c>
       <c r="AG14" s="54" t="s">
         <v>663</v>
@@ -40911,7 +40911,7 @@
         <v>36</v>
       </c>
       <c r="I15" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="J15" s="120">
@@ -40921,7 +40921,7 @@
         <v>40</v>
       </c>
       <c r="L15" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="M15" s="120">
@@ -40931,7 +40931,7 @@
         <v>40</v>
       </c>
       <c r="O15" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="P15" s="120">
@@ -40941,7 +40941,7 @@
         <v>45</v>
       </c>
       <c r="R15" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="S15" s="115">
@@ -40951,7 +40951,7 @@
         <v>57</v>
       </c>
       <c r="U15" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="V15" s="120">
@@ -40961,7 +40961,7 @@
         <v>38</v>
       </c>
       <c r="X15" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="Y15" s="120">
@@ -40971,7 +40971,7 @@
         <v>20</v>
       </c>
       <c r="AA15" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="AB15" s="120">
@@ -40981,15 +40981,15 @@
         <v>18</v>
       </c>
       <c r="AD15" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="AE15" s="121">
         <v>40</v>
       </c>
       <c r="AF15" s="53">
-        <f t="shared" si="8"/>
-        <v>675</v>
+        <f t="shared" si="0"/>
+        <v>635</v>
       </c>
       <c r="AG15" s="66" t="s">
         <v>664</v>
@@ -41023,7 +41023,7 @@
         <v>34</v>
       </c>
       <c r="I16" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="J16" s="120">
@@ -41033,7 +41033,7 @@
         <v>25</v>
       </c>
       <c r="L16" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="M16" s="120">
@@ -41043,7 +41043,7 @@
         <v>35</v>
       </c>
       <c r="O16" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="P16" s="120"/>
@@ -41051,7 +41051,7 @@
         <v>568</v>
       </c>
       <c r="R16" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S16" s="115">
@@ -41061,7 +41061,7 @@
         <v>41</v>
       </c>
       <c r="U16" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="V16" s="120">
@@ -41071,7 +41071,7 @@
         <v>30</v>
       </c>
       <c r="X16" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="Y16" s="120">
@@ -41081,7 +41081,7 @@
         <v>14</v>
       </c>
       <c r="AA16" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="AB16" s="120">
@@ -41091,15 +41091,15 @@
         <v>15</v>
       </c>
       <c r="AD16" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="AE16" s="121">
         <v>35</v>
       </c>
       <c r="AF16" s="53">
-        <f t="shared" si="8"/>
-        <v>417</v>
+        <f t="shared" si="0"/>
+        <v>382</v>
       </c>
       <c r="AG16" s="66" t="s">
         <v>664</v>
@@ -41133,7 +41133,7 @@
         <v>42</v>
       </c>
       <c r="I17" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="J17" s="120">
@@ -41143,7 +41143,7 @@
         <v>46</v>
       </c>
       <c r="L17" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="M17" s="120">
@@ -41153,7 +41153,7 @@
         <v>50</v>
       </c>
       <c r="O17" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="P17" s="120">
@@ -41163,7 +41163,7 @@
         <v>37</v>
       </c>
       <c r="R17" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="S17" s="115">
@@ -41173,7 +41173,7 @@
         <v>54</v>
       </c>
       <c r="U17" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="V17" s="120">
@@ -41183,7 +41183,7 @@
         <v>52</v>
       </c>
       <c r="X17" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="Y17" s="120">
@@ -41193,7 +41193,7 @@
         <v>17</v>
       </c>
       <c r="AA17" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="AB17" s="120">
@@ -41203,15 +41203,15 @@
         <v>18</v>
       </c>
       <c r="AD17" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="AE17" s="121">
         <v>40</v>
       </c>
       <c r="AF17" s="53">
-        <f t="shared" si="8"/>
-        <v>696</v>
+        <f t="shared" si="0"/>
+        <v>656</v>
       </c>
       <c r="AG17" s="54" t="s">
         <v>663</v>
@@ -41243,7 +41243,7 @@
         <v>32</v>
       </c>
       <c r="I18" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="J18" s="120"/>
@@ -41251,7 +41251,7 @@
         <v>568</v>
       </c>
       <c r="L18" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="120">
@@ -41261,7 +41261,7 @@
         <v>38</v>
       </c>
       <c r="O18" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="P18" s="120">
@@ -41271,7 +41271,7 @@
         <v>31</v>
       </c>
       <c r="R18" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="S18" s="115">
@@ -41281,7 +41281,7 @@
         <v>41</v>
       </c>
       <c r="U18" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="V18" s="120">
@@ -41291,7 +41291,7 @@
         <v>27</v>
       </c>
       <c r="X18" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="Y18" s="120">
@@ -41301,7 +41301,7 @@
         <v>17</v>
       </c>
       <c r="AA18" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="AB18" s="120">
@@ -41311,15 +41311,15 @@
         <v>13</v>
       </c>
       <c r="AD18" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AE18" s="121">
         <v>30</v>
       </c>
       <c r="AF18" s="53">
-        <f t="shared" si="8"/>
-        <v>480</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="AG18" s="66" t="s">
         <v>664</v>
@@ -41353,7 +41353,7 @@
         <v>32</v>
       </c>
       <c r="I19" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="J19" s="120">
@@ -41363,7 +41363,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="M19" s="120">
@@ -41373,7 +41373,7 @@
         <v>45</v>
       </c>
       <c r="O19" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="P19" s="120">
@@ -41383,7 +41383,7 @@
         <v>37</v>
       </c>
       <c r="R19" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="S19" s="115">
@@ -41393,7 +41393,7 @@
         <v>50</v>
       </c>
       <c r="U19" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="V19" s="123">
@@ -41403,7 +41403,7 @@
         <v>38</v>
       </c>
       <c r="X19" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="Y19" s="120">
@@ -41413,7 +41413,7 @@
         <v>16</v>
       </c>
       <c r="AA19" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="AB19" s="120">
@@ -41423,15 +41423,15 @@
         <v>13</v>
       </c>
       <c r="AD19" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AE19" s="121">
         <v>35</v>
       </c>
       <c r="AF19" s="53">
-        <f t="shared" si="8"/>
-        <v>594</v>
+        <f t="shared" si="0"/>
+        <v>559</v>
       </c>
       <c r="AG19" s="54" t="s">
         <v>663</v>
@@ -41463,7 +41463,7 @@
         <v>51</v>
       </c>
       <c r="I20" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="J20" s="120">
@@ -41473,7 +41473,7 @@
         <v>41</v>
       </c>
       <c r="L20" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="M20" s="120">
@@ -41483,7 +41483,7 @@
         <v>53</v>
       </c>
       <c r="O20" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="P20" s="120">
@@ -41493,7 +41493,7 @@
         <v>45</v>
       </c>
       <c r="R20" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="S20" s="115">
@@ -41503,7 +41503,7 @@
         <v>60</v>
       </c>
       <c r="U20" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="V20" s="120">
@@ -41513,7 +41513,7 @@
         <v>50</v>
       </c>
       <c r="X20" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131</v>
       </c>
       <c r="Y20" s="120">
@@ -41523,7 +41523,7 @@
         <v>17</v>
       </c>
       <c r="AA20" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="AB20" s="120">
@@ -41533,15 +41533,15 @@
         <v>15</v>
       </c>
       <c r="AD20" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="AE20" s="121">
         <v>45</v>
       </c>
       <c r="AF20" s="53">
-        <f t="shared" si="8"/>
-        <v>779</v>
+        <f t="shared" si="0"/>
+        <v>734</v>
       </c>
       <c r="AG20" s="54" t="s">
         <v>663</v>
@@ -41573,7 +41573,7 @@
         <v>41</v>
       </c>
       <c r="I21" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="J21" s="120">
@@ -41583,7 +41583,7 @@
         <v>39</v>
       </c>
       <c r="L21" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="M21" s="120">
@@ -41593,7 +41593,7 @@
         <v>45</v>
       </c>
       <c r="O21" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="P21" s="120">
@@ -41603,7 +41603,7 @@
         <v>30</v>
       </c>
       <c r="R21" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="S21" s="115">
@@ -41613,7 +41613,7 @@
         <v>46</v>
       </c>
       <c r="U21" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="V21" s="120">
@@ -41623,7 +41623,7 @@
         <v>32</v>
       </c>
       <c r="X21" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="Y21" s="120">
@@ -41633,7 +41633,7 @@
         <v>14</v>
       </c>
       <c r="AA21" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="AB21" s="120">
@@ -41643,15 +41643,15 @@
         <v>15</v>
       </c>
       <c r="AD21" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="AE21" s="121">
         <v>45</v>
       </c>
       <c r="AF21" s="53">
-        <f t="shared" si="8"/>
-        <v>578</v>
+        <f t="shared" si="0"/>
+        <v>533</v>
       </c>
       <c r="AG21" s="54" t="s">
         <v>663</v>
@@ -41683,7 +41683,7 @@
         <v>49</v>
       </c>
       <c r="I22" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J22" s="120">
@@ -41693,7 +41693,7 @@
         <v>34</v>
       </c>
       <c r="L22" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="M22" s="120">
@@ -41703,7 +41703,7 @@
         <v>53</v>
       </c>
       <c r="O22" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="P22" s="120">
@@ -41713,7 +41713,7 @@
         <v>51</v>
       </c>
       <c r="R22" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="S22" s="115">
@@ -41723,7 +41723,7 @@
         <v>61</v>
       </c>
       <c r="U22" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127</v>
       </c>
       <c r="V22" s="120">
@@ -41733,7 +41733,7 @@
         <v>50</v>
       </c>
       <c r="X22" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131</v>
       </c>
       <c r="Y22" s="120">
@@ -41743,7 +41743,7 @@
         <v>16</v>
       </c>
       <c r="AA22" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AB22" s="120">
@@ -41753,15 +41753,15 @@
         <v>18</v>
       </c>
       <c r="AD22" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="AE22" s="121">
         <v>45</v>
       </c>
       <c r="AF22" s="53">
-        <f t="shared" si="8"/>
-        <v>734</v>
+        <f t="shared" si="0"/>
+        <v>689</v>
       </c>
       <c r="AG22" s="54" t="s">
         <v>663</v>
@@ -41793,7 +41793,7 @@
         <v>37</v>
       </c>
       <c r="I23" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="J23" s="120">
@@ -41803,7 +41803,7 @@
         <v>38</v>
       </c>
       <c r="L23" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="M23" s="120">
@@ -41813,7 +41813,7 @@
         <v>45</v>
       </c>
       <c r="O23" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="P23" s="120">
@@ -41823,7 +41823,7 @@
         <v>36</v>
       </c>
       <c r="R23" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="S23" s="115">
@@ -41833,7 +41833,7 @@
         <v>44</v>
       </c>
       <c r="U23" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="V23" s="120">
@@ -41843,7 +41843,7 @@
         <v>35</v>
       </c>
       <c r="X23" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="Y23" s="120">
@@ -41853,7 +41853,7 @@
         <v>16</v>
       </c>
       <c r="AA23" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="AB23" s="120">
@@ -41863,15 +41863,15 @@
         <v>17</v>
       </c>
       <c r="AD23" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AE23" s="121">
         <v>30</v>
       </c>
       <c r="AF23" s="53">
-        <f t="shared" si="8"/>
-        <v>582</v>
+        <f t="shared" si="0"/>
+        <v>552</v>
       </c>
       <c r="AG23" s="54" t="s">
         <v>663</v>
@@ -41903,7 +41903,7 @@
         <v>44</v>
       </c>
       <c r="I24" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J24" s="120">
@@ -41913,7 +41913,7 @@
         <v>35</v>
       </c>
       <c r="L24" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="M24" s="120">
@@ -41923,7 +41923,7 @@
         <v>42</v>
       </c>
       <c r="O24" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="P24" s="120">
@@ -41933,7 +41933,7 @@
         <v>50</v>
       </c>
       <c r="R24" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="S24" s="115">
@@ -41943,7 +41943,7 @@
         <v>53</v>
       </c>
       <c r="U24" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="V24" s="120">
@@ -41953,7 +41953,7 @@
         <v>30</v>
       </c>
       <c r="X24" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="Y24" s="120">
@@ -41963,7 +41963,7 @@
         <v>16</v>
       </c>
       <c r="AA24" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="AB24" s="120">
@@ -41973,15 +41973,15 @@
         <v>16</v>
       </c>
       <c r="AD24" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="AE24" s="121">
         <v>35</v>
       </c>
       <c r="AF24" s="53">
-        <f t="shared" si="8"/>
-        <v>678</v>
+        <f t="shared" si="0"/>
+        <v>643</v>
       </c>
       <c r="AG24" s="54" t="s">
         <v>663</v>
@@ -42013,7 +42013,7 @@
         <v>58</v>
       </c>
       <c r="I25" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="J25" s="120">
@@ -42023,7 +42023,7 @@
         <v>51</v>
       </c>
       <c r="L25" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="M25" s="120">
@@ -42033,7 +42033,7 @@
         <v>50</v>
       </c>
       <c r="O25" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="P25" s="120">
@@ -42043,7 +42043,7 @@
         <v>59</v>
       </c>
       <c r="R25" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="S25" s="115">
@@ -42053,7 +42053,7 @@
         <v>66</v>
       </c>
       <c r="U25" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="V25" s="120">
@@ -42063,7 +42063,7 @@
         <v>52</v>
       </c>
       <c r="X25" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="Y25" s="120">
@@ -42073,7 +42073,7 @@
         <v>23</v>
       </c>
       <c r="AA25" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="AB25" s="120">
@@ -42083,15 +42083,15 @@
         <v>16</v>
       </c>
       <c r="AD25" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="AE25" s="121">
         <v>50</v>
       </c>
       <c r="AF25" s="53">
-        <f t="shared" si="8"/>
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>850</v>
       </c>
       <c r="AG25" s="54" t="s">
         <v>663</v>
@@ -42123,7 +42123,7 @@
         <v>28</v>
       </c>
       <c r="I26" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J26" s="120">
@@ -42133,7 +42133,7 @@
         <v>34</v>
       </c>
       <c r="L26" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="M26" s="120">
@@ -42143,7 +42143,7 @@
         <v>39</v>
       </c>
       <c r="O26" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="P26" s="120">
@@ -42153,7 +42153,7 @@
         <v>27</v>
       </c>
       <c r="R26" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="S26" s="115">
@@ -42163,7 +42163,7 @@
         <v>47</v>
       </c>
       <c r="U26" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="V26" s="120">
@@ -42173,7 +42173,7 @@
         <v>32</v>
       </c>
       <c r="X26" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="Y26" s="120">
@@ -42183,7 +42183,7 @@
         <v>16</v>
       </c>
       <c r="AA26" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="AB26" s="120">
@@ -42193,15 +42193,15 @@
         <v>15</v>
       </c>
       <c r="AD26" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AE26" s="121">
         <v>50</v>
       </c>
       <c r="AF26" s="53">
-        <f t="shared" si="8"/>
-        <v>507</v>
+        <f t="shared" si="0"/>
+        <v>457</v>
       </c>
       <c r="AG26" s="66" t="s">
         <v>664</v>
@@ -42233,7 +42233,7 @@
         <v>568</v>
       </c>
       <c r="I27" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="120"/>
@@ -42241,7 +42241,7 @@
         <v>568</v>
       </c>
       <c r="L27" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="120"/>
@@ -42249,7 +42249,7 @@
         <v>17</v>
       </c>
       <c r="O27" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="P27" s="120"/>
@@ -42257,7 +42257,7 @@
         <v>568</v>
       </c>
       <c r="R27" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="115"/>
@@ -42265,7 +42265,7 @@
         <v>25</v>
       </c>
       <c r="U27" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="V27" s="120">
@@ -42275,7 +42275,7 @@
         <v>26</v>
       </c>
       <c r="X27" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="Y27" s="120">
@@ -42285,7 +42285,7 @@
         <v>13</v>
       </c>
       <c r="AA27" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AB27" s="120" t="s">
@@ -42295,15 +42295,15 @@
         <v>568</v>
       </c>
       <c r="AD27" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE27" s="121">
         <v>35</v>
       </c>
       <c r="AF27" s="53">
-        <f t="shared" si="8"/>
-        <v>175</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
       <c r="AG27" s="184" t="s">
         <v>671</v>
@@ -42335,7 +42335,7 @@
         <v>51</v>
       </c>
       <c r="I28" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="J28" s="120">
@@ -42345,7 +42345,7 @@
         <v>45</v>
       </c>
       <c r="L28" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="M28" s="120">
@@ -42355,7 +42355,7 @@
         <v>46</v>
       </c>
       <c r="O28" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="P28" s="120">
@@ -42365,7 +42365,7 @@
         <v>43</v>
       </c>
       <c r="R28" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="S28" s="115">
@@ -42375,18 +42375,18 @@
         <v>57</v>
       </c>
       <c r="U28" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="V28" s="120">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="W28" s="120">
         <v>49</v>
       </c>
       <c r="X28" s="121">
-        <f t="shared" si="5"/>
-        <v>112</v>
+        <f t="shared" si="6"/>
+        <v>96</v>
       </c>
       <c r="Y28" s="120">
         <v>19</v>
@@ -42395,7 +42395,7 @@
         <v>22</v>
       </c>
       <c r="AA28" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="AB28" s="120">
@@ -42405,15 +42405,15 @@
         <v>14</v>
       </c>
       <c r="AD28" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="AE28" s="121">
         <v>45</v>
       </c>
       <c r="AF28" s="53">
-        <f t="shared" si="8"/>
-        <v>810</v>
+        <f t="shared" si="0"/>
+        <v>749</v>
       </c>
       <c r="AG28" s="54" t="s">
         <v>663</v>
@@ -42445,7 +42445,7 @@
         <v>44</v>
       </c>
       <c r="I29" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="J29" s="120">
@@ -42455,7 +42455,7 @@
         <v>42</v>
       </c>
       <c r="L29" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="M29" s="120">
@@ -42465,7 +42465,7 @@
         <v>48</v>
       </c>
       <c r="O29" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="P29" s="120">
@@ -42475,7 +42475,7 @@
         <v>44</v>
       </c>
       <c r="R29" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="S29" s="115">
@@ -42485,7 +42485,7 @@
         <v>49</v>
       </c>
       <c r="U29" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="V29" s="120">
@@ -42495,7 +42495,7 @@
         <v>50</v>
       </c>
       <c r="X29" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="Y29" s="120">
@@ -42505,7 +42505,7 @@
         <v>20</v>
       </c>
       <c r="AA29" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="AB29" s="120">
@@ -42515,15 +42515,15 @@
         <v>15</v>
       </c>
       <c r="AD29" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="AE29" s="121">
         <v>45</v>
       </c>
       <c r="AF29" s="53">
-        <f t="shared" si="8"/>
-        <v>701</v>
+        <f t="shared" si="0"/>
+        <v>656</v>
       </c>
       <c r="AG29" s="54" t="s">
         <v>663</v>
@@ -42555,7 +42555,7 @@
         <v>28</v>
       </c>
       <c r="I30" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="J30" s="120">
@@ -42565,7 +42565,7 @@
         <v>27</v>
       </c>
       <c r="L30" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="M30" s="120">
@@ -42575,7 +42575,7 @@
         <v>29</v>
       </c>
       <c r="O30" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="P30" s="120">
@@ -42585,7 +42585,7 @@
         <v>30</v>
       </c>
       <c r="R30" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="S30" s="115">
@@ -42595,7 +42595,7 @@
         <v>40</v>
       </c>
       <c r="U30" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="V30" s="120">
@@ -42605,7 +42605,7 @@
         <v>35</v>
       </c>
       <c r="X30" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>85</v>
       </c>
       <c r="Y30" s="120">
@@ -42615,7 +42615,7 @@
         <v>15</v>
       </c>
       <c r="AA30" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AB30" s="120">
@@ -42625,15 +42625,15 @@
         <v>12</v>
       </c>
       <c r="AD30" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="AE30" s="121">
         <v>40</v>
       </c>
       <c r="AF30" s="53">
-        <f t="shared" si="8"/>
-        <v>481</v>
+        <f t="shared" si="0"/>
+        <v>441</v>
       </c>
       <c r="AG30" s="66" t="s">
         <v>664</v>
@@ -42667,7 +42667,7 @@
         <v>59</v>
       </c>
       <c r="I31" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="J31" s="120">
@@ -42677,7 +42677,7 @@
         <v>56</v>
       </c>
       <c r="L31" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="M31" s="120">
@@ -42687,7 +42687,7 @@
         <v>49</v>
       </c>
       <c r="O31" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="P31" s="120">
@@ -42697,7 +42697,7 @@
         <v>56</v>
       </c>
       <c r="R31" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="S31" s="115">
@@ -42707,7 +42707,7 @@
         <v>71</v>
       </c>
       <c r="U31" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="V31" s="120">
@@ -42717,7 +42717,7 @@
         <v>49</v>
       </c>
       <c r="X31" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119</v>
       </c>
       <c r="Y31" s="120">
@@ -42727,7 +42727,7 @@
         <v>21</v>
       </c>
       <c r="AA31" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="AB31" s="120">
@@ -42737,15 +42737,15 @@
         <v>21</v>
       </c>
       <c r="AD31" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="AE31" s="121">
         <v>45</v>
       </c>
       <c r="AF31" s="53">
-        <f t="shared" si="8"/>
-        <v>920</v>
+        <f t="shared" si="0"/>
+        <v>875</v>
       </c>
       <c r="AG31" s="54" t="s">
         <v>663</v>
@@ -42777,7 +42777,7 @@
         <v>29</v>
       </c>
       <c r="I32" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="J32" s="120"/>
@@ -42785,7 +42785,7 @@
         <v>568</v>
       </c>
       <c r="L32" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M32" s="120">
@@ -42795,7 +42795,7 @@
         <v>34</v>
       </c>
       <c r="O32" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="P32" s="120">
@@ -42805,7 +42805,7 @@
         <v>37</v>
       </c>
       <c r="R32" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="S32" s="115">
@@ -42815,7 +42815,7 @@
         <v>55</v>
       </c>
       <c r="U32" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="V32" s="120">
@@ -42825,7 +42825,7 @@
         <v>29</v>
       </c>
       <c r="X32" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="Y32" s="120">
@@ -42835,7 +42835,7 @@
         <v>22</v>
       </c>
       <c r="AA32" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="AB32" s="120">
@@ -42845,15 +42845,15 @@
         <v>15</v>
       </c>
       <c r="AD32" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AE32" s="121">
         <v>45</v>
       </c>
       <c r="AF32" s="53">
-        <f t="shared" si="8"/>
-        <v>529</v>
+        <f t="shared" si="0"/>
+        <v>484</v>
       </c>
       <c r="AG32" s="66" t="s">
         <v>664</v>
@@ -42887,7 +42887,7 @@
         <v>33</v>
       </c>
       <c r="I33" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="J33" s="120">
@@ -42897,7 +42897,7 @@
         <v>35</v>
       </c>
       <c r="L33" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="M33" s="120">
@@ -42907,7 +42907,7 @@
         <v>40</v>
       </c>
       <c r="O33" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="P33" s="120">
@@ -42917,7 +42917,7 @@
         <v>31</v>
       </c>
       <c r="R33" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="S33" s="115">
@@ -42927,7 +42927,7 @@
         <v>37</v>
       </c>
       <c r="U33" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="V33" s="120">
@@ -42937,7 +42937,7 @@
         <v>35</v>
       </c>
       <c r="X33" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="Y33" s="120">
@@ -42947,7 +42947,7 @@
         <v>14</v>
       </c>
       <c r="AA33" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="AB33" s="120">
@@ -42957,15 +42957,15 @@
         <v>13</v>
       </c>
       <c r="AD33" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AE33" s="121">
         <v>50</v>
       </c>
       <c r="AF33" s="53">
-        <f t="shared" si="8"/>
-        <v>468</v>
+        <f t="shared" si="0"/>
+        <v>418</v>
       </c>
       <c r="AG33" s="66" t="s">
         <v>664</v>
@@ -42999,7 +42999,7 @@
         <v>56</v>
       </c>
       <c r="I34" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
       <c r="J34" s="120">
@@ -43009,7 +43009,7 @@
         <v>57</v>
       </c>
       <c r="L34" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="M34" s="120">
@@ -43019,7 +43019,7 @@
         <v>40</v>
       </c>
       <c r="O34" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="P34" s="120">
@@ -43029,7 +43029,7 @@
         <v>54</v>
       </c>
       <c r="R34" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="S34" s="115">
@@ -43039,7 +43039,7 @@
         <v>52</v>
       </c>
       <c r="U34" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="V34" s="120">
@@ -43049,7 +43049,7 @@
         <v>40</v>
       </c>
       <c r="X34" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="Y34" s="120">
@@ -43059,7 +43059,7 @@
         <v>19</v>
       </c>
       <c r="AA34" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="AB34" s="120">
@@ -43069,15 +43069,15 @@
         <v>18</v>
       </c>
       <c r="AD34" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="AE34" s="121">
         <v>50</v>
       </c>
       <c r="AF34" s="53">
-        <f t="shared" si="8"/>
-        <v>804</v>
+        <f t="shared" si="0"/>
+        <v>754</v>
       </c>
       <c r="AG34" s="54" t="s">
         <v>663</v>
@@ -43109,7 +43109,7 @@
         <v>60</v>
       </c>
       <c r="I35" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="J35" s="120">
@@ -43119,7 +43119,7 @@
         <v>53</v>
       </c>
       <c r="L35" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="M35" s="120">
@@ -43129,7 +43129,7 @@
         <v>52</v>
       </c>
       <c r="O35" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="P35" s="120">
@@ -43139,7 +43139,7 @@
         <v>59</v>
       </c>
       <c r="R35" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="S35" s="115">
@@ -43149,7 +43149,7 @@
         <v>70</v>
       </c>
       <c r="U35" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="V35" s="120">
@@ -43159,7 +43159,7 @@
         <v>52</v>
       </c>
       <c r="X35" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="Y35" s="120">
@@ -43169,7 +43169,7 @@
         <v>21</v>
       </c>
       <c r="AA35" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="AB35" s="120">
@@ -43179,15 +43179,15 @@
         <v>17</v>
       </c>
       <c r="AD35" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="AE35" s="121">
         <v>50</v>
       </c>
       <c r="AF35" s="53">
-        <f t="shared" si="8"/>
-        <v>977</v>
+        <f t="shared" si="0"/>
+        <v>927</v>
       </c>
       <c r="AG35" s="54" t="s">
         <v>663</v>
@@ -43219,7 +43219,7 @@
         <v>41</v>
       </c>
       <c r="I36" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="J36" s="120">
@@ -43229,7 +43229,7 @@
         <v>41</v>
       </c>
       <c r="L36" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="M36" s="120">
@@ -43239,7 +43239,7 @@
         <v>39</v>
       </c>
       <c r="O36" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="P36" s="120">
@@ -43249,7 +43249,7 @@
         <v>44</v>
       </c>
       <c r="R36" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="S36" s="115">
@@ -43259,7 +43259,7 @@
         <v>56</v>
       </c>
       <c r="U36" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="V36" s="120">
@@ -43269,7 +43269,7 @@
         <v>38</v>
       </c>
       <c r="X36" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="Y36" s="120">
@@ -43279,7 +43279,7 @@
         <v>21</v>
       </c>
       <c r="AA36" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="AB36" s="120">
@@ -43289,15 +43289,15 @@
         <v>12</v>
       </c>
       <c r="AD36" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AE36" s="121">
         <v>50</v>
       </c>
       <c r="AF36" s="53">
-        <f t="shared" si="8"/>
-        <v>736</v>
+        <f t="shared" si="0"/>
+        <v>686</v>
       </c>
       <c r="AG36" s="54" t="s">
         <v>663</v>
@@ -43329,7 +43329,7 @@
         <v>48</v>
       </c>
       <c r="I37" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="J37" s="120">
@@ -43339,7 +43339,7 @@
         <v>46</v>
       </c>
       <c r="L37" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="M37" s="120">
@@ -43349,7 +43349,7 @@
         <v>46</v>
       </c>
       <c r="O37" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="P37" s="120">
@@ -43359,7 +43359,7 @@
         <v>43</v>
       </c>
       <c r="R37" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="S37" s="115">
@@ -43369,7 +43369,7 @@
         <v>57</v>
       </c>
       <c r="U37" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="V37" s="120">
@@ -43379,7 +43379,7 @@
         <v>44</v>
       </c>
       <c r="X37" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="Y37" s="120">
@@ -43389,7 +43389,7 @@
         <v>17</v>
       </c>
       <c r="AA37" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="AB37" s="120">
@@ -43399,15 +43399,15 @@
         <v>14</v>
       </c>
       <c r="AD37" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="AE37" s="121">
         <v>45</v>
       </c>
       <c r="AF37" s="53">
-        <f t="shared" si="8"/>
-        <v>728</v>
+        <f t="shared" si="0"/>
+        <v>683</v>
       </c>
       <c r="AG37" s="54" t="s">
         <v>663</v>
@@ -43437,7 +43437,7 @@
         <v>568</v>
       </c>
       <c r="I38" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="120">
@@ -43447,7 +43447,7 @@
         <v>30</v>
       </c>
       <c r="L38" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="M38" s="120">
@@ -43457,7 +43457,7 @@
         <v>25</v>
       </c>
       <c r="O38" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="P38" s="120"/>
@@ -43465,7 +43465,7 @@
         <v>568</v>
       </c>
       <c r="R38" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S38" s="115">
@@ -43475,7 +43475,7 @@
         <v>39</v>
       </c>
       <c r="U38" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="V38" s="120">
@@ -43485,7 +43485,7 @@
         <v>34</v>
       </c>
       <c r="X38" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="Y38" s="120">
@@ -43495,7 +43495,7 @@
         <v>17</v>
       </c>
       <c r="AA38" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AB38" s="120">
@@ -43505,15 +43505,15 @@
         <v>14</v>
       </c>
       <c r="AD38" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="AE38" s="121">
         <v>50</v>
       </c>
       <c r="AF38" s="53">
-        <f t="shared" si="8"/>
-        <v>394</v>
+        <f t="shared" si="0"/>
+        <v>344</v>
       </c>
       <c r="AG38" s="66" t="s">
         <v>664</v>
@@ -43547,7 +43547,7 @@
         <v>39</v>
       </c>
       <c r="I39" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="J39" s="120">
@@ -43557,7 +43557,7 @@
         <v>38</v>
       </c>
       <c r="L39" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="M39" s="120">
@@ -43567,7 +43567,7 @@
         <v>45</v>
       </c>
       <c r="O39" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="P39" s="120">
@@ -43577,7 +43577,7 @@
         <v>38</v>
       </c>
       <c r="R39" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="S39" s="115">
@@ -43587,7 +43587,7 @@
         <v>44</v>
       </c>
       <c r="U39" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="V39" s="120">
@@ -43597,7 +43597,7 @@
         <v>38</v>
       </c>
       <c r="X39" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="Y39" s="120">
@@ -43607,7 +43607,7 @@
         <v>18</v>
       </c>
       <c r="AA39" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="AB39" s="120">
@@ -43617,15 +43617,15 @@
         <v>20</v>
       </c>
       <c r="AD39" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="AE39" s="121">
         <v>50</v>
       </c>
       <c r="AF39" s="53">
-        <f t="shared" si="8"/>
-        <v>751</v>
+        <f t="shared" si="0"/>
+        <v>701</v>
       </c>
       <c r="AG39" s="54" t="s">
         <v>663</v>
@@ -43657,7 +43657,7 @@
         <v>59</v>
       </c>
       <c r="I40" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="J40" s="120">
@@ -43667,7 +43667,7 @@
         <v>51</v>
       </c>
       <c r="L40" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="M40" s="120">
@@ -43677,7 +43677,7 @@
         <v>50</v>
       </c>
       <c r="O40" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="P40" s="120">
@@ -43687,7 +43687,7 @@
         <v>54</v>
       </c>
       <c r="R40" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="S40" s="115">
@@ -43697,7 +43697,7 @@
         <v>65</v>
       </c>
       <c r="U40" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="V40" s="120">
@@ -43707,7 +43707,7 @@
         <v>50</v>
       </c>
       <c r="X40" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="Y40" s="120">
@@ -43717,7 +43717,7 @@
         <v>20</v>
       </c>
       <c r="AA40" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="AB40" s="120">
@@ -43727,15 +43727,15 @@
         <v>16</v>
       </c>
       <c r="AD40" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="AE40" s="121">
         <v>50</v>
       </c>
       <c r="AF40" s="53">
-        <f t="shared" si="8"/>
-        <v>883</v>
+        <f t="shared" ref="AF40:AF66" si="9">AD40+AA40+X40+U40+R40+O40+L40+I40</f>
+        <v>833</v>
       </c>
       <c r="AG40" s="54" t="s">
         <v>663</v>
@@ -43767,7 +43767,7 @@
         <v>33</v>
       </c>
       <c r="I41" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="J41" s="120">
@@ -43777,7 +43777,7 @@
         <v>44</v>
       </c>
       <c r="L41" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="M41" s="120">
@@ -43787,7 +43787,7 @@
         <v>37</v>
       </c>
       <c r="O41" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="P41" s="120">
@@ -43797,7 +43797,7 @@
         <v>49</v>
       </c>
       <c r="R41" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="S41" s="115">
@@ -43807,7 +43807,7 @@
         <v>51</v>
       </c>
       <c r="U41" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="V41" s="120">
@@ -43817,7 +43817,7 @@
         <v>38</v>
       </c>
       <c r="X41" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="Y41" s="125">
@@ -43827,7 +43827,7 @@
         <v>19</v>
       </c>
       <c r="AA41" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="AB41" s="120">
@@ -43837,15 +43837,15 @@
         <v>9</v>
       </c>
       <c r="AD41" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="AE41" s="121">
         <v>45</v>
       </c>
       <c r="AF41" s="53">
-        <f t="shared" si="8"/>
-        <v>704</v>
+        <f t="shared" si="9"/>
+        <v>659</v>
       </c>
       <c r="AG41" s="54" t="s">
         <v>663</v>
@@ -43877,7 +43877,7 @@
         <v>41</v>
       </c>
       <c r="I42" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="J42" s="120">
@@ -43887,7 +43887,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="M42" s="120">
@@ -43897,7 +43897,7 @@
         <v>49</v>
       </c>
       <c r="O42" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="P42" s="120">
@@ -43907,7 +43907,7 @@
         <v>42</v>
       </c>
       <c r="R42" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="S42" s="115">
@@ -43917,7 +43917,7 @@
         <v>46</v>
       </c>
       <c r="U42" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="V42" s="125">
@@ -43927,7 +43927,7 @@
         <v>40</v>
       </c>
       <c r="X42" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="Y42" s="125">
@@ -43937,7 +43937,7 @@
         <v>16</v>
       </c>
       <c r="AA42" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="AB42" s="120">
@@ -43947,15 +43947,15 @@
         <v>18</v>
       </c>
       <c r="AD42" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="AE42" s="121">
         <v>45</v>
       </c>
       <c r="AF42" s="53">
-        <f t="shared" si="8"/>
-        <v>650</v>
+        <f t="shared" si="9"/>
+        <v>605</v>
       </c>
       <c r="AG42" s="54" t="s">
         <v>663</v>
@@ -43987,7 +43987,7 @@
         <v>43</v>
       </c>
       <c r="I43" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="J43" s="120">
@@ -43997,7 +43997,7 @@
         <v>37</v>
       </c>
       <c r="L43" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="M43" s="120">
@@ -44007,7 +44007,7 @@
         <v>40</v>
       </c>
       <c r="O43" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="P43" s="120">
@@ -44017,7 +44017,7 @@
         <v>30</v>
       </c>
       <c r="R43" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="S43" s="115">
@@ -44027,7 +44027,7 @@
         <v>45</v>
       </c>
       <c r="U43" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="V43" s="125">
@@ -44037,7 +44037,7 @@
         <v>39</v>
       </c>
       <c r="X43" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="Y43" s="125">
@@ -44047,7 +44047,7 @@
         <v>18</v>
       </c>
       <c r="AA43" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="AB43" s="120">
@@ -44057,15 +44057,15 @@
         <v>17</v>
       </c>
       <c r="AD43" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AE43" s="121">
         <v>45</v>
       </c>
       <c r="AF43" s="53">
-        <f t="shared" si="8"/>
-        <v>477</v>
+        <f t="shared" si="9"/>
+        <v>432</v>
       </c>
       <c r="AG43" s="66" t="s">
         <v>664</v>
@@ -44097,7 +44097,7 @@
         <v>45</v>
       </c>
       <c r="I44" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="J44" s="120">
@@ -44107,7 +44107,7 @@
         <v>36</v>
       </c>
       <c r="L44" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="M44" s="120">
@@ -44117,7 +44117,7 @@
         <v>42</v>
       </c>
       <c r="O44" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="P44" s="120">
@@ -44127,7 +44127,7 @@
         <v>40</v>
       </c>
       <c r="R44" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="S44" s="115">
@@ -44137,7 +44137,7 @@
         <v>41</v>
       </c>
       <c r="U44" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="V44" s="125">
@@ -44147,7 +44147,7 @@
         <v>38</v>
       </c>
       <c r="X44" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="Y44" s="120">
@@ -44157,7 +44157,7 @@
         <v>20</v>
       </c>
       <c r="AA44" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="AB44" s="120" t="s">
@@ -44167,15 +44167,15 @@
         <v>568</v>
       </c>
       <c r="AD44" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE44" s="121">
         <v>50</v>
       </c>
       <c r="AF44" s="53">
-        <f t="shared" si="8"/>
-        <v>697</v>
+        <f t="shared" si="9"/>
+        <v>647</v>
       </c>
       <c r="AG44" s="66" t="s">
         <v>664</v>
@@ -44207,7 +44207,7 @@
         <v>38</v>
       </c>
       <c r="I45" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="J45" s="120">
@@ -44217,7 +44217,7 @@
         <v>36</v>
       </c>
       <c r="L45" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="M45" s="120">
@@ -44227,7 +44227,7 @@
         <v>44</v>
       </c>
       <c r="O45" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="P45" s="120">
@@ -44237,7 +44237,7 @@
         <v>35</v>
       </c>
       <c r="R45" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="S45" s="115">
@@ -44247,7 +44247,7 @@
         <v>45</v>
       </c>
       <c r="U45" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="V45" s="120">
@@ -44257,7 +44257,7 @@
         <v>35</v>
       </c>
       <c r="X45" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="Y45" s="120">
@@ -44267,7 +44267,7 @@
         <v>19</v>
       </c>
       <c r="AA45" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AB45" s="120" t="s">
@@ -44277,15 +44277,15 @@
         <v>568</v>
       </c>
       <c r="AD45" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE45" s="121">
         <v>40</v>
       </c>
       <c r="AF45" s="53">
-        <f t="shared" si="8"/>
-        <v>582</v>
+        <f t="shared" si="9"/>
+        <v>542</v>
       </c>
       <c r="AG45" s="66" t="s">
         <v>664</v>
@@ -44317,7 +44317,7 @@
         <v>46</v>
       </c>
       <c r="I46" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="J46" s="120">
@@ -44327,7 +44327,7 @@
         <v>40</v>
       </c>
       <c r="L46" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="M46" s="120">
@@ -44337,7 +44337,7 @@
         <v>46</v>
       </c>
       <c r="O46" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="P46" s="120">
@@ -44347,7 +44347,7 @@
         <v>47</v>
       </c>
       <c r="R46" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="S46" s="115">
@@ -44357,7 +44357,7 @@
         <v>52</v>
       </c>
       <c r="U46" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="V46" s="120">
@@ -44367,7 +44367,7 @@
         <v>38</v>
       </c>
       <c r="X46" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="Y46" s="120">
@@ -44377,7 +44377,7 @@
         <v>20</v>
       </c>
       <c r="AA46" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="AB46" s="120">
@@ -44387,15 +44387,15 @@
         <v>14</v>
       </c>
       <c r="AD46" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AE46" s="121">
         <v>45</v>
       </c>
       <c r="AF46" s="53">
-        <f t="shared" si="8"/>
-        <v>766</v>
+        <f t="shared" si="9"/>
+        <v>721</v>
       </c>
       <c r="AG46" s="54" t="s">
         <v>663</v>
@@ -44425,7 +44425,7 @@
         <v>568</v>
       </c>
       <c r="I47" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="120"/>
@@ -44433,13 +44433,13 @@
         <v>660</v>
       </c>
       <c r="L47" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M47" s="120"/>
       <c r="N47" s="120"/>
       <c r="O47" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P47" s="120"/>
@@ -44447,7 +44447,7 @@
         <v>568</v>
       </c>
       <c r="R47" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S47" s="115"/>
@@ -44455,7 +44455,7 @@
         <v>568</v>
       </c>
       <c r="U47" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V47" s="120"/>
@@ -44463,7 +44463,7 @@
         <v>568</v>
       </c>
       <c r="X47" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y47" s="125" t="s">
@@ -44473,7 +44473,7 @@
         <v>567</v>
       </c>
       <c r="AA47" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB47" s="120" t="s">
@@ -44483,15 +44483,15 @@
         <v>567</v>
       </c>
       <c r="AD47" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE47" s="121">
         <v>30</v>
       </c>
       <c r="AF47" s="53">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AG47" s="66" t="s">
         <v>664</v>
@@ -44523,7 +44523,7 @@
         <v>36</v>
       </c>
       <c r="I48" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="J48" s="120">
@@ -44533,7 +44533,7 @@
         <v>44</v>
       </c>
       <c r="L48" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="M48" s="120">
@@ -44543,7 +44543,7 @@
         <v>38</v>
       </c>
       <c r="O48" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="P48" s="120">
@@ -44553,7 +44553,7 @@
         <v>27</v>
       </c>
       <c r="R48" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="S48" s="115">
@@ -44563,7 +44563,7 @@
         <v>48</v>
       </c>
       <c r="U48" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="V48" s="125">
@@ -44573,7 +44573,7 @@
         <v>35</v>
       </c>
       <c r="X48" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="Y48" s="125">
@@ -44583,7 +44583,7 @@
         <v>18</v>
       </c>
       <c r="AA48" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="AB48" s="120">
@@ -44593,15 +44593,15 @@
         <v>17</v>
       </c>
       <c r="AD48" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="AE48" s="121">
         <v>50</v>
       </c>
       <c r="AF48" s="53">
-        <f t="shared" si="8"/>
-        <v>640</v>
+        <f t="shared" si="9"/>
+        <v>590</v>
       </c>
       <c r="AG48" s="54" t="s">
         <v>663</v>
@@ -44633,7 +44633,7 @@
         <v>47</v>
       </c>
       <c r="I49" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="J49" s="120">
@@ -44643,7 +44643,7 @@
         <v>50</v>
       </c>
       <c r="L49" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="M49" s="120">
@@ -44653,7 +44653,7 @@
         <v>49</v>
       </c>
       <c r="O49" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="P49" s="120">
@@ -44663,7 +44663,7 @@
         <v>49</v>
       </c>
       <c r="R49" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="S49" s="115">
@@ -44673,7 +44673,7 @@
         <v>59</v>
       </c>
       <c r="U49" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="V49" s="125">
@@ -44683,7 +44683,7 @@
         <v>47</v>
       </c>
       <c r="X49" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="Y49" s="125">
@@ -44693,7 +44693,7 @@
         <v>22</v>
       </c>
       <c r="AA49" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="AB49" s="126">
@@ -44703,15 +44703,15 @@
         <v>17</v>
       </c>
       <c r="AD49" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="AE49" s="121">
         <v>50</v>
       </c>
       <c r="AF49" s="53">
-        <f t="shared" si="8"/>
-        <v>820</v>
+        <f t="shared" si="9"/>
+        <v>770</v>
       </c>
       <c r="AG49" s="54" t="s">
         <v>663</v>
@@ -44743,7 +44743,7 @@
         <v>37</v>
       </c>
       <c r="I50" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="J50" s="120">
@@ -44753,7 +44753,7 @@
         <v>30</v>
       </c>
       <c r="L50" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="M50" s="120">
@@ -44763,7 +44763,7 @@
         <v>35</v>
       </c>
       <c r="O50" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="P50" s="120">
@@ -44773,7 +44773,7 @@
         <v>32</v>
       </c>
       <c r="R50" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="S50" s="115">
@@ -44783,7 +44783,7 @@
         <v>33</v>
       </c>
       <c r="U50" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="V50" s="125">
@@ -44793,7 +44793,7 @@
         <v>32</v>
       </c>
       <c r="X50" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="Y50" s="125">
@@ -44803,7 +44803,7 @@
         <v>17</v>
       </c>
       <c r="AA50" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AB50" s="126">
@@ -44813,15 +44813,15 @@
         <v>14</v>
       </c>
       <c r="AD50" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AE50" s="121">
         <v>45</v>
       </c>
       <c r="AF50" s="53">
-        <f t="shared" si="8"/>
-        <v>560</v>
+        <f t="shared" si="9"/>
+        <v>515</v>
       </c>
       <c r="AG50" s="54" t="s">
         <v>663</v>
@@ -44855,7 +44855,7 @@
         <v>35</v>
       </c>
       <c r="I51" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="J51" s="126">
@@ -44865,7 +44865,7 @@
         <v>37</v>
       </c>
       <c r="L51" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="M51" s="126">
@@ -44875,7 +44875,7 @@
         <v>38</v>
       </c>
       <c r="O51" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="P51" s="126">
@@ -44885,7 +44885,7 @@
         <v>30</v>
       </c>
       <c r="R51" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="S51" s="115">
@@ -44895,7 +44895,7 @@
         <v>44</v>
       </c>
       <c r="U51" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="V51" s="125">
@@ -44905,7 +44905,7 @@
         <v>35</v>
       </c>
       <c r="X51" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="Y51" s="126">
@@ -44915,7 +44915,7 @@
         <v>19</v>
       </c>
       <c r="AA51" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="AB51" s="126">
@@ -44925,15 +44925,15 @@
         <v>15</v>
       </c>
       <c r="AD51" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="AE51" s="129">
         <v>44</v>
       </c>
       <c r="AF51" s="53">
-        <f t="shared" si="8"/>
-        <v>571</v>
+        <f t="shared" si="9"/>
+        <v>527</v>
       </c>
       <c r="AG51" s="66" t="s">
         <v>664</v>
@@ -44964,7 +44964,7 @@
         <v>39</v>
       </c>
       <c r="I52" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J52" s="126">
@@ -44974,7 +44974,7 @@
         <v>51</v>
       </c>
       <c r="L52" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="M52" s="126">
@@ -44984,7 +44984,7 @@
         <v>38</v>
       </c>
       <c r="O52" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="P52" s="126">
@@ -44994,7 +44994,7 @@
         <v>37</v>
       </c>
       <c r="R52" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="S52" s="115">
@@ -45004,7 +45004,7 @@
         <v>47</v>
       </c>
       <c r="U52" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="V52" s="126">
@@ -45014,7 +45014,7 @@
         <v>38</v>
       </c>
       <c r="X52" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="Y52" s="126">
@@ -45024,7 +45024,7 @@
         <v>19</v>
       </c>
       <c r="AA52" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AB52" s="126">
@@ -45034,15 +45034,15 @@
         <v>15</v>
       </c>
       <c r="AD52" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="AE52" s="129">
         <v>45</v>
       </c>
       <c r="AF52" s="53">
-        <f t="shared" si="8"/>
-        <v>632</v>
+        <f t="shared" si="9"/>
+        <v>587</v>
       </c>
       <c r="AG52" s="54" t="s">
         <v>663</v>
@@ -45073,7 +45073,7 @@
         <v>42</v>
       </c>
       <c r="I53" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="J53" s="126">
@@ -45083,7 +45083,7 @@
         <v>39</v>
       </c>
       <c r="L53" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="M53" s="126">
@@ -45093,7 +45093,7 @@
         <v>42</v>
       </c>
       <c r="O53" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="P53" s="126">
@@ -45103,7 +45103,7 @@
         <v>35</v>
       </c>
       <c r="R53" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="S53" s="115">
@@ -45113,7 +45113,7 @@
         <v>46</v>
       </c>
       <c r="U53" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103</v>
       </c>
       <c r="V53" s="126">
@@ -45123,7 +45123,7 @@
         <v>35</v>
       </c>
       <c r="X53" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="Y53" s="126">
@@ -45133,7 +45133,7 @@
         <v>17</v>
       </c>
       <c r="AA53" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AB53" s="126">
@@ -45143,15 +45143,15 @@
         <v>18</v>
       </c>
       <c r="AD53" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="AE53" s="129">
         <v>45</v>
       </c>
       <c r="AF53" s="53">
-        <f t="shared" si="8"/>
-        <v>555</v>
+        <f t="shared" si="9"/>
+        <v>510</v>
       </c>
       <c r="AG53" s="66" t="s">
         <v>664</v>
@@ -45184,7 +45184,7 @@
         <v>35</v>
       </c>
       <c r="I54" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="J54" s="126">
@@ -45194,7 +45194,7 @@
         <v>36</v>
       </c>
       <c r="L54" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="M54" s="126">
@@ -45204,7 +45204,7 @@
         <v>36</v>
       </c>
       <c r="O54" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="P54" s="126">
@@ -45214,7 +45214,7 @@
         <v>30</v>
       </c>
       <c r="R54" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="S54" s="115">
@@ -45224,7 +45224,7 @@
         <v>41</v>
       </c>
       <c r="U54" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="V54" s="126">
@@ -45234,7 +45234,7 @@
         <v>39</v>
       </c>
       <c r="X54" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="Y54" s="126">
@@ -45244,7 +45244,7 @@
         <v>15</v>
       </c>
       <c r="AA54" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="AB54" s="126">
@@ -45254,15 +45254,15 @@
         <v>15</v>
       </c>
       <c r="AD54" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="AE54" s="129">
         <v>50</v>
       </c>
       <c r="AF54" s="53">
-        <f t="shared" si="8"/>
-        <v>626</v>
+        <f t="shared" si="9"/>
+        <v>576</v>
       </c>
       <c r="AG54" s="66" t="s">
         <v>664</v>
@@ -45295,7 +45295,7 @@
         <v>46</v>
       </c>
       <c r="I55" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="J55" s="126">
@@ -45305,7 +45305,7 @@
         <v>44</v>
       </c>
       <c r="L55" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="M55" s="126">
@@ -45315,7 +45315,7 @@
         <v>46</v>
       </c>
       <c r="O55" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="P55" s="126">
@@ -45325,7 +45325,7 @@
         <v>33</v>
       </c>
       <c r="R55" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="S55" s="115">
@@ -45335,7 +45335,7 @@
         <v>54</v>
       </c>
       <c r="U55" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="V55" s="126">
@@ -45345,7 +45345,7 @@
         <v>38</v>
       </c>
       <c r="X55" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="Y55" s="126">
@@ -45355,7 +45355,7 @@
         <v>19</v>
       </c>
       <c r="AA55" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="AB55" s="126">
@@ -45365,15 +45365,15 @@
         <v>14</v>
       </c>
       <c r="AD55" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="AE55" s="129">
         <v>50</v>
       </c>
       <c r="AF55" s="53">
-        <f t="shared" si="8"/>
-        <v>703</v>
+        <f t="shared" si="9"/>
+        <v>653</v>
       </c>
       <c r="AG55" s="54" t="s">
         <v>663</v>
@@ -45404,7 +45404,7 @@
         <v>40</v>
       </c>
       <c r="I56" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="J56" s="126">
@@ -45414,7 +45414,7 @@
         <v>35</v>
       </c>
       <c r="L56" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="M56" s="126">
@@ -45424,7 +45424,7 @@
         <v>43</v>
       </c>
       <c r="O56" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="P56" s="126">
@@ -45434,7 +45434,7 @@
         <v>33</v>
       </c>
       <c r="R56" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="S56" s="115">
@@ -45444,7 +45444,7 @@
         <v>47</v>
       </c>
       <c r="U56" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="V56" s="126">
@@ -45454,7 +45454,7 @@
         <v>44</v>
       </c>
       <c r="X56" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>109</v>
       </c>
       <c r="Y56" s="126">
@@ -45464,7 +45464,7 @@
         <v>18</v>
       </c>
       <c r="AA56" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="AB56" s="126">
@@ -45474,15 +45474,15 @@
         <v>14</v>
       </c>
       <c r="AD56" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="AE56" s="129">
         <v>44</v>
       </c>
       <c r="AF56" s="53">
-        <f t="shared" si="8"/>
-        <v>680</v>
+        <f t="shared" si="9"/>
+        <v>636</v>
       </c>
       <c r="AG56" s="54" t="s">
         <v>663</v>
@@ -45513,7 +45513,7 @@
         <v>40</v>
       </c>
       <c r="I57" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="J57" s="126">
@@ -45523,7 +45523,7 @@
         <v>39</v>
       </c>
       <c r="L57" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="M57" s="126">
@@ -45533,7 +45533,7 @@
         <v>36</v>
       </c>
       <c r="O57" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="P57" s="126">
@@ -45543,7 +45543,7 @@
         <v>32</v>
       </c>
       <c r="R57" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="S57" s="115">
@@ -45553,7 +45553,7 @@
         <v>53</v>
       </c>
       <c r="U57" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="V57" s="126">
@@ -45563,7 +45563,7 @@
         <v>38</v>
       </c>
       <c r="X57" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="Y57" s="126">
@@ -45573,7 +45573,7 @@
         <v>17</v>
       </c>
       <c r="AA57" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AB57" s="126">
@@ -45583,15 +45583,15 @@
         <v>16</v>
       </c>
       <c r="AD57" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="AE57" s="168">
         <v>50</v>
       </c>
       <c r="AF57" s="53">
-        <f t="shared" si="8"/>
-        <v>570</v>
+        <f t="shared" si="9"/>
+        <v>520</v>
       </c>
       <c r="AG57" s="66" t="s">
         <v>664</v>
@@ -45624,7 +45624,7 @@
         <v>39</v>
       </c>
       <c r="I58" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="J58" s="126">
@@ -45634,7 +45634,7 @@
         <v>40</v>
       </c>
       <c r="L58" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="M58" s="126">
@@ -45644,7 +45644,7 @@
         <v>36</v>
       </c>
       <c r="O58" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="P58" s="126">
@@ -45654,7 +45654,7 @@
         <v>36</v>
       </c>
       <c r="R58" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="S58" s="115">
@@ -45664,7 +45664,7 @@
         <v>47</v>
       </c>
       <c r="U58" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="V58" s="126">
@@ -45674,7 +45674,7 @@
         <v>36</v>
       </c>
       <c r="X58" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="Y58" s="126">
@@ -45684,7 +45684,7 @@
         <v>18</v>
       </c>
       <c r="AA58" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AB58" s="126">
@@ -45694,15 +45694,15 @@
         <v>13</v>
       </c>
       <c r="AD58" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AE58" s="129">
         <v>44</v>
       </c>
       <c r="AF58" s="53">
-        <f t="shared" si="8"/>
-        <v>575</v>
+        <f t="shared" si="9"/>
+        <v>531</v>
       </c>
       <c r="AG58" s="66" t="s">
         <v>664</v>
@@ -45735,7 +45735,7 @@
         <v>17</v>
       </c>
       <c r="I59" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J59" s="126">
@@ -45745,7 +45745,7 @@
         <v>30</v>
       </c>
       <c r="L59" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="M59" s="126"/>
@@ -45753,7 +45753,7 @@
         <v>18</v>
       </c>
       <c r="O59" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="P59" s="126"/>
@@ -45761,7 +45761,7 @@
         <v>568</v>
       </c>
       <c r="R59" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S59" s="115"/>
@@ -45769,7 +45769,7 @@
         <v>31</v>
       </c>
       <c r="U59" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="V59" s="126">
@@ -45779,7 +45779,7 @@
         <v>29</v>
       </c>
       <c r="X59" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="Y59" s="126">
@@ -45789,7 +45789,7 @@
         <v>15</v>
       </c>
       <c r="AA59" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="AB59" s="126">
@@ -45799,15 +45799,15 @@
         <v>12</v>
       </c>
       <c r="AD59" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AE59" s="129">
         <v>45</v>
       </c>
       <c r="AF59" s="53">
-        <f t="shared" si="8"/>
-        <v>253</v>
+        <f t="shared" si="9"/>
+        <v>208</v>
       </c>
       <c r="AG59" s="184" t="s">
         <v>671</v>
@@ -45838,7 +45838,7 @@
         <v>48</v>
       </c>
       <c r="I60" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="J60" s="126">
@@ -45848,7 +45848,7 @@
         <v>53</v>
       </c>
       <c r="L60" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="M60" s="126">
@@ -45858,7 +45858,7 @@
         <v>39</v>
       </c>
       <c r="O60" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="P60" s="126">
@@ -45868,7 +45868,7 @@
         <v>41</v>
       </c>
       <c r="R60" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="S60" s="115">
@@ -45878,7 +45878,7 @@
         <v>43</v>
       </c>
       <c r="U60" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="V60" s="126">
@@ -45888,7 +45888,7 @@
         <v>47</v>
       </c>
       <c r="X60" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="Y60" s="126">
@@ -45898,7 +45898,7 @@
         <v>21</v>
       </c>
       <c r="AA60" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="AB60" s="126">
@@ -45908,15 +45908,15 @@
         <v>19</v>
       </c>
       <c r="AD60" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="AE60" s="129">
         <v>45</v>
       </c>
       <c r="AF60" s="53">
-        <f t="shared" si="8"/>
-        <v>697</v>
+        <f t="shared" si="9"/>
+        <v>652</v>
       </c>
       <c r="AG60" s="54" t="s">
         <v>663</v>
@@ -45947,7 +45947,7 @@
         <v>42</v>
       </c>
       <c r="I61" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="J61" s="126">
@@ -45957,7 +45957,7 @@
         <v>48</v>
       </c>
       <c r="L61" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="M61" s="126">
@@ -45967,7 +45967,7 @@
         <v>43</v>
       </c>
       <c r="O61" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="P61" s="126">
@@ -45977,7 +45977,7 @@
         <v>46</v>
       </c>
       <c r="R61" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="S61" s="115">
@@ -45987,7 +45987,7 @@
         <v>38</v>
       </c>
       <c r="U61" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="V61" s="126">
@@ -45997,7 +45997,7 @@
         <v>39</v>
       </c>
       <c r="X61" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="Y61" s="126">
@@ -46007,7 +46007,7 @@
         <v>18</v>
       </c>
       <c r="AA61" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="AB61" s="126">
@@ -46017,15 +46017,15 @@
         <v>15</v>
       </c>
       <c r="AD61" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="AE61" s="129">
         <v>50</v>
       </c>
       <c r="AF61" s="53">
-        <f t="shared" si="8"/>
-        <v>683</v>
+        <f t="shared" si="9"/>
+        <v>633</v>
       </c>
       <c r="AG61" s="54" t="s">
         <v>663</v>
@@ -46056,7 +46056,7 @@
         <v>45</v>
       </c>
       <c r="I62" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="J62" s="126">
@@ -46066,7 +46066,7 @@
         <v>47</v>
       </c>
       <c r="L62" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="M62" s="126">
@@ -46076,7 +46076,7 @@
         <v>45</v>
       </c>
       <c r="O62" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="P62" s="126">
@@ -46086,7 +46086,7 @@
         <v>40</v>
       </c>
       <c r="R62" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="S62" s="115">
@@ -46096,7 +46096,7 @@
         <v>44</v>
       </c>
       <c r="U62" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="V62" s="126">
@@ -46106,7 +46106,7 @@
         <v>44</v>
       </c>
       <c r="X62" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>95</v>
       </c>
       <c r="Y62" s="126">
@@ -46116,7 +46116,7 @@
         <v>21</v>
       </c>
       <c r="AA62" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="AB62" s="126">
@@ -46126,15 +46126,15 @@
         <v>19</v>
       </c>
       <c r="AD62" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="AE62" s="129">
         <v>50</v>
       </c>
       <c r="AF62" s="53">
-        <f t="shared" si="8"/>
-        <v>683</v>
+        <f t="shared" si="9"/>
+        <v>633</v>
       </c>
       <c r="AG62" s="54" t="s">
         <v>663</v>
@@ -46165,7 +46165,7 @@
         <v>46</v>
       </c>
       <c r="I63" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="J63" s="126">
@@ -46175,7 +46175,7 @@
         <v>50</v>
       </c>
       <c r="L63" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="M63" s="126">
@@ -46185,7 +46185,7 @@
         <v>50</v>
       </c>
       <c r="O63" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="P63" s="126">
@@ -46195,7 +46195,7 @@
         <v>39</v>
       </c>
       <c r="R63" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="S63" s="115">
@@ -46205,7 +46205,7 @@
         <v>46</v>
       </c>
       <c r="U63" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
       <c r="V63" s="126">
@@ -46215,7 +46215,7 @@
         <v>44</v>
       </c>
       <c r="X63" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="Y63" s="126">
@@ -46225,7 +46225,7 @@
         <v>21</v>
       </c>
       <c r="AA63" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="AB63" s="126">
@@ -46235,15 +46235,15 @@
         <v>16</v>
       </c>
       <c r="AD63" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="AE63" s="129">
         <v>45</v>
       </c>
       <c r="AF63" s="53">
-        <f t="shared" si="8"/>
-        <v>757</v>
+        <f t="shared" si="9"/>
+        <v>712</v>
       </c>
       <c r="AG63" s="54" t="s">
         <v>663</v>
@@ -46272,7 +46272,7 @@
         <v>14</v>
       </c>
       <c r="I64" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J64" s="126"/>
@@ -46280,13 +46280,13 @@
         <v>0</v>
       </c>
       <c r="L64" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M64" s="126"/>
       <c r="N64" s="126"/>
       <c r="O64" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P64" s="126"/>
@@ -46294,7 +46294,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S64" s="115"/>
@@ -46302,7 +46302,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V64" s="126"/>
@@ -46310,7 +46310,7 @@
         <v>568</v>
       </c>
       <c r="X64" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y64" s="126" t="s">
@@ -46320,7 +46320,7 @@
         <v>567</v>
       </c>
       <c r="AA64" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB64" s="126" t="s">
@@ -46330,15 +46330,15 @@
         <v>567</v>
       </c>
       <c r="AD64" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE64" s="129">
         <v>35</v>
       </c>
       <c r="AF64" s="53">
-        <f t="shared" si="8"/>
-        <v>49</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="AG64" s="184" t="s">
         <v>671</v>
@@ -46369,7 +46369,7 @@
         <v>32</v>
       </c>
       <c r="I65" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J65" s="126">
@@ -46379,7 +46379,7 @@
         <v>32</v>
       </c>
       <c r="L65" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="M65" s="126">
@@ -46389,7 +46389,7 @@
         <v>22</v>
       </c>
       <c r="O65" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="P65" s="126"/>
@@ -46397,7 +46397,7 @@
         <v>568</v>
       </c>
       <c r="R65" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S65" s="115">
@@ -46407,7 +46407,7 @@
         <v>39</v>
       </c>
       <c r="U65" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="V65" s="126">
@@ -46417,7 +46417,7 @@
         <v>32</v>
       </c>
       <c r="X65" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="Y65" s="126">
@@ -46427,7 +46427,7 @@
         <v>18</v>
       </c>
       <c r="AA65" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="AB65" s="126">
@@ -46437,15 +46437,15 @@
         <v>14</v>
       </c>
       <c r="AD65" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AE65" s="129">
         <v>45</v>
       </c>
       <c r="AF65" s="53">
-        <f t="shared" si="8"/>
-        <v>400</v>
+        <f t="shared" si="9"/>
+        <v>355</v>
       </c>
       <c r="AG65" s="184" t="s">
         <v>671</v>
@@ -46476,7 +46476,7 @@
         <v>52</v>
       </c>
       <c r="I66" s="121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="J66" s="126">
@@ -46486,7 +46486,7 @@
         <v>58</v>
       </c>
       <c r="L66" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="M66" s="126">
@@ -46496,7 +46496,7 @@
         <v>48</v>
       </c>
       <c r="O66" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="P66" s="126">
@@ -46506,7 +46506,7 @@
         <v>49</v>
       </c>
       <c r="R66" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="S66" s="115">
@@ -46516,7 +46516,7 @@
         <v>51</v>
       </c>
       <c r="U66" s="121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="V66" s="126">
@@ -46526,7 +46526,7 @@
         <v>37</v>
       </c>
       <c r="X66" s="121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="Y66" s="126">
@@ -46536,7 +46536,7 @@
         <v>21</v>
       </c>
       <c r="AA66" s="121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="AB66" s="126">
@@ -46546,15 +46546,15 @@
         <v>20</v>
       </c>
       <c r="AD66" s="121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="AE66" s="129">
         <v>45</v>
       </c>
       <c r="AF66" s="53">
-        <f t="shared" si="8"/>
-        <v>811</v>
+        <f t="shared" si="9"/>
+        <v>766</v>
       </c>
       <c r="AG66" s="54" t="s">
         <v>663</v>
